--- a/K Sales-Dashboard1.xlsx
+++ b/K Sales-Dashboard1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8748F2C1-162A-419A-AEDC-D5E0005AB1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A66EE5E-85F5-4529-8214-BAA6DACE07AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="599" activeTab="1" xr2:uid="{2A8D8132-C9EE-4994-93FB-DC27041C27BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="599" activeTab="2" xr2:uid="{2A8D8132-C9EE-4994-93FB-DC27041C27BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -291,7 +291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +313,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,7 +450,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -518,6 +524,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
@@ -6489,13 +6496,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
@@ -6527,13 +6534,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
@@ -6565,13 +6572,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>561976</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
@@ -6604,18 +6611,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Region">
@@ -6638,7 +6645,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6648,8 +6655,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12515850" y="3886201"/>
-              <a:ext cx="1828800" cy="1333499"/>
+              <a:off x="12782550" y="3648076"/>
+              <a:ext cx="1352550" cy="1704974"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6682,18 +6689,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="22" name="Salesman">
@@ -6716,7 +6723,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6726,8 +6733,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10582275" y="3886201"/>
-              <a:ext cx="1828800" cy="1733550"/>
+              <a:off x="11125200" y="3648076"/>
+              <a:ext cx="1666875" cy="1733550"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6759,13 +6766,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -6869,13 +6876,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -6942,13 +6949,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -7052,13 +7059,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -7125,13 +7132,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -7235,13 +7242,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
@@ -7308,13 +7315,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -7346,7 +7353,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -7411,7 +7418,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="User" refreshedDate="45623.884037731485" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{51A5D38A-1D5B-4687-8DC2-D62AF887D213}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="User" refreshedDate="45871.516558680552" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{51A5D38A-1D5B-4687-8DC2-D62AF887D213}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Total sales]" caption="Total sales" numFmtId="0" hierarchy="19" level="32767"/>
@@ -7540,7 +7547,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="User" refreshedDate="45871.132796180558" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{4185F75E-8CD1-458D-9822-C85C8BC5239B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="User" refreshedDate="45871.943122453704" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{4185F75E-8CD1-458D-9822-C85C8BC5239B}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Total sales]" caption="Total sales" numFmtId="0" hierarchy="19" level="32767"/>
@@ -7680,7 +7687,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="User" refreshedDate="45871.132796527774" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{8ADB6CEA-3DD5-426B-80F6-C996E41864A3}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="User" refreshedDate="45871.943122800927" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{8ADB6CEA-3DD5-426B-80F6-C996E41864A3}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="2">
     <cacheField name="[Range].[Salesman].[Salesman]" caption="Salesman" numFmtId="0" level="1">
@@ -7809,7 +7816,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="User" refreshedDate="45871.132796874997" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{696E787A-FD32-4E50-A97B-E5918654C252}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="User" refreshedDate="45871.943123263889" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{696E787A-FD32-4E50-A97B-E5918654C252}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="5">
     <cacheField name="[Range].[Salesman].[Salesman]" caption="Salesman" numFmtId="0" level="1">
@@ -7950,7 +7957,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="User" refreshedDate="45871.132797222221" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{AE0386D4-C324-4462-B097-C0B7E9BEF08A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="User" refreshedDate="45871.943123611112" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{AE0386D4-C324-4462-B097-C0B7E9BEF08A}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="2">
     <cacheField name="[Range].[Salesman].[Salesman]" caption="Salesman" numFmtId="0" level="1">
@@ -8078,7 +8085,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="User" refreshedDate="45871.132797569444" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6A550561-A4CC-4E4C-9F7D-2B4185A939DC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="User" refreshedDate="45871.943123958335" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6A550561-A4CC-4E4C-9F7D-2B4185A939DC}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="2">
     <cacheField name="[Range].[Salesman].[Salesman]" caption="Salesman" numFmtId="0" level="1">
@@ -8355,6 +8362,295 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3C98C9D9-9FE8-4ACD-8F20-8271D44A280C}" name="PivotTable2" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="36">
+  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="32" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="31">
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="0"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Data!$A$1:$R$121">
+        <x15:activeTabTopLevelEntity name="[Range]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{391DF97A-5792-400A-B482-BAA60A22444D}" name="Revenue/hr" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="57">
+  <location ref="A37:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="49" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="56" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="56" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="56" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="31">
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="0"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Data!$A$1:$R$121">
+        <x15:activeTabTopLevelEntity name="[Range]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7E3AE47B-C3A9-4A1E-B9CF-D5B92AFDE4D8}" name="Total hrs" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="53">
   <location ref="A23:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
@@ -8482,7 +8778,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00C1333C-4975-4C53-98A1-54FBD2A76A0C}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="36">
   <location ref="A17:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
@@ -8579,7 +8875,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{63D9ACB7-0B28-4B64-9373-B840229A532B}" name="sales satisfaction..." cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
   <location ref="D3:H14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
@@ -8719,7 +9015,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F1AD34B-9243-4287-B0AE-84882E715F9A}" name="Salesman products" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="63">
   <location ref="G18:J30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
@@ -8939,295 +9235,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3C98C9D9-9FE8-4ACD-8F20-8271D44A280C}" name="PivotTable2" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="36">
-  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="32" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="31">
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="0"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Data!$A$1:$R$121">
-        <x15:activeTabTopLevelEntity name="[Range]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{391DF97A-5792-400A-B482-BAA60A22444D}" name="Revenue/hr" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="57">
-  <location ref="A37:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="49" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="56" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="56" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="56" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="31">
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="0"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Data!$A$1:$R$121">
-        <x15:activeTabTopLevelEntity name="[Range]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Region" xr10:uid="{3BE78C16-BE15-4929-9B6C-A7B9F232FBCA}" sourceName="[Range].[Region]">
   <pivotTables>
@@ -9348,8 +9355,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{921A5A35-A0A0-4043-9EE3-0005573C4A4E}" name="Table3" displayName="Table3" ref="C20:G30" totalsRowShown="0">
-  <autoFilter ref="C20:G30" xr:uid="{921A5A35-A0A0-4043-9EE3-0005573C4A4E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{921A5A35-A0A0-4043-9EE3-0005573C4A4E}" name="Table3" displayName="Table3" ref="D20:H30" totalsRowShown="0">
+  <autoFilter ref="D20:H30" xr:uid="{921A5A35-A0A0-4043-9EE3-0005573C4A4E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7665178A-E573-4E08-A190-0CCE81591282}" name="Salesman ">
       <calculatedColumnFormula>Analysis!D4</calculatedColumnFormula>
@@ -17207,7 +17214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BE30FA-7DE6-45F6-B876-82DF19B38B0A}">
   <dimension ref="A3:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -17269,13 +17276,13 @@
       <c r="E4" s="12">
         <v>4257</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="30">
         <v>939</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="30">
         <v>506</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="30">
         <v>9.1082605750559438</v>
       </c>
     </row>
@@ -17292,13 +17299,13 @@
       <c r="E5" s="12">
         <v>4261</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="30">
         <v>765</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="30">
         <v>591</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="30">
         <v>8.7873418249724757</v>
       </c>
     </row>
@@ -17315,13 +17322,13 @@
       <c r="E6" s="12">
         <v>4346</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="30">
         <v>820</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="30">
         <v>569</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="30">
         <v>8.9348131058853042</v>
       </c>
     </row>
@@ -17338,13 +17345,13 @@
       <c r="E7" s="12">
         <v>4209</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="30">
         <v>817</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="30">
         <v>556</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="30">
         <v>9.0099184374427956</v>
       </c>
     </row>
@@ -17361,13 +17368,13 @@
       <c r="E8" s="12">
         <v>4403</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="30">
         <v>815</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="30">
         <v>513</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="30">
         <v>9.0697312401404879</v>
       </c>
     </row>
@@ -17384,13 +17391,13 @@
       <c r="E9" s="12">
         <v>4176</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="30">
         <v>775</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="30">
         <v>511</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="30">
         <v>9.0478720271100777</v>
       </c>
     </row>
@@ -17407,13 +17414,13 @@
       <c r="E10" s="12">
         <v>4199</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="30">
         <v>875</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="30">
         <v>520</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="30">
         <v>9.059739977552109</v>
       </c>
     </row>
@@ -17430,13 +17437,13 @@
       <c r="E11" s="12">
         <v>4584</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="30">
         <v>807</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="30">
         <v>533</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="30">
         <v>8.9871943300053694</v>
       </c>
     </row>
@@ -17453,13 +17460,13 @@
       <c r="E12" s="12">
         <v>4081</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="30">
         <v>764</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="30">
         <v>555</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="30">
         <v>8.9022781438302676</v>
       </c>
     </row>
@@ -17476,13 +17483,13 @@
       <c r="E13" s="12">
         <v>4405</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="30">
         <v>900</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="30">
         <v>531</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="30">
         <v>9.0295597904386682</v>
       </c>
     </row>
@@ -17499,13 +17506,13 @@
       <c r="E14" s="12">
         <v>42921</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="30">
         <v>8277</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="30">
         <v>5385</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="30">
         <v>89.93670945243349</v>
       </c>
     </row>
@@ -17623,7 +17630,7 @@
       <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="30">
         <v>91</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -17643,7 +17650,7 @@
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="30">
         <v>94</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -17663,7 +17670,7 @@
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="30">
         <v>84</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -17683,7 +17690,7 @@
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="30">
         <v>91</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -17703,7 +17710,7 @@
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="30">
         <v>92</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -17723,7 +17730,7 @@
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="30">
         <v>82</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -17743,7 +17750,7 @@
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B30" s="30">
         <v>102</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -17763,7 +17770,7 @@
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="29">
+      <c r="B31" s="30">
         <v>91</v>
       </c>
     </row>
@@ -17771,7 +17778,7 @@
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="29">
+      <c r="B32" s="30">
         <v>95</v>
       </c>
     </row>
@@ -17779,7 +17786,7 @@
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="29">
+      <c r="B33" s="30">
         <v>100</v>
       </c>
     </row>
@@ -17787,7 +17794,7 @@
       <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="29">
+      <c r="B34" s="30">
         <v>922</v>
       </c>
     </row>
@@ -17894,24 +17901,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA8820F-407B-4874-8911-6907DD8A4D6D}">
-  <dimension ref="A1:AS528"/>
+  <dimension ref="A1:AT528"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="29"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
+    <row r="1" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -17956,9 +17963,9 @@
       <c r="AQ1" s="11"/>
       <c r="AR1" s="11"/>
       <c r="AS1" s="11"/>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
+      <c r="AT1" s="11"/>
+    </row>
+    <row r="2" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -18003,9 +18010,9 @@
       <c r="AQ2" s="11"/>
       <c r="AR2" s="11"/>
       <c r="AS2" s="11"/>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="AT2" s="11"/>
+    </row>
+    <row r="3" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -18050,9 +18057,9 @@
       <c r="AQ3" s="11"/>
       <c r="AR3" s="11"/>
       <c r="AS3" s="11"/>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="AT3" s="11"/>
+    </row>
+    <row r="4" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -18097,9 +18104,9 @@
       <c r="AQ4" s="11"/>
       <c r="AR4" s="11"/>
       <c r="AS4" s="11"/>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="AT4" s="11"/>
+    </row>
+    <row r="5" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -18144,9 +18151,9 @@
       <c r="AQ5" s="11"/>
       <c r="AR5" s="11"/>
       <c r="AS5" s="11"/>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="AT5" s="11"/>
+    </row>
+    <row r="6" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -18191,9 +18198,9 @@
       <c r="AQ6" s="11"/>
       <c r="AR6" s="11"/>
       <c r="AS6" s="11"/>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="AT6" s="11"/>
+    </row>
+    <row r="7" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -18238,9 +18245,9 @@
       <c r="AQ7" s="11"/>
       <c r="AR7" s="11"/>
       <c r="AS7" s="11"/>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="AT7" s="11"/>
+    </row>
+    <row r="8" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -18285,9 +18292,9 @@
       <c r="AQ8" s="11"/>
       <c r="AR8" s="11"/>
       <c r="AS8" s="11"/>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="AT8" s="11"/>
+    </row>
+    <row r="9" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -18332,9 +18339,9 @@
       <c r="AQ9" s="11"/>
       <c r="AR9" s="11"/>
       <c r="AS9" s="11"/>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="AT9" s="11"/>
+    </row>
+    <row r="10" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -18379,9 +18386,9 @@
       <c r="AQ10" s="11"/>
       <c r="AR10" s="11"/>
       <c r="AS10" s="11"/>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="AT10" s="11"/>
+    </row>
+    <row r="11" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -18426,9 +18433,9 @@
       <c r="AQ11" s="11"/>
       <c r="AR11" s="11"/>
       <c r="AS11" s="11"/>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="AT11" s="11"/>
+    </row>
+    <row r="12" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -18473,9 +18480,9 @@
       <c r="AQ12" s="11"/>
       <c r="AR12" s="11"/>
       <c r="AS12" s="11"/>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="AT12" s="11"/>
+    </row>
+    <row r="13" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -18520,9 +18527,9 @@
       <c r="AQ13" s="11"/>
       <c r="AR13" s="11"/>
       <c r="AS13" s="11"/>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="AT13" s="11"/>
+    </row>
+    <row r="14" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -18567,9 +18574,9 @@
       <c r="AQ14" s="11"/>
       <c r="AR14" s="11"/>
       <c r="AS14" s="11"/>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="AT14" s="11"/>
+    </row>
+    <row r="15" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -18614,9 +18621,9 @@
       <c r="AQ15" s="11"/>
       <c r="AR15" s="11"/>
       <c r="AS15" s="11"/>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="AT15" s="11"/>
+    </row>
+    <row r="16" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -18661,9 +18668,9 @@
       <c r="AQ16" s="11"/>
       <c r="AR16" s="11"/>
       <c r="AS16" s="11"/>
-    </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="AT16" s="11"/>
+    </row>
+    <row r="17" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -18708,9 +18715,9 @@
       <c r="AQ17" s="11"/>
       <c r="AR17" s="11"/>
       <c r="AS17" s="11"/>
-    </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="AT17" s="11"/>
+    </row>
+    <row r="18" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -18755,9 +18762,9 @@
       <c r="AQ18" s="11"/>
       <c r="AR18" s="11"/>
       <c r="AS18" s="11"/>
-    </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="AT18" s="11"/>
+    </row>
+    <row r="19" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -18802,26 +18809,26 @@
       <c r="AQ19" s="11"/>
       <c r="AR19" s="11"/>
       <c r="AS19" s="11"/>
-    </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+      <c r="AT19" s="11"/>
+    </row>
+    <row r="20" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
-      <c r="C20" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" t="s">
         <v>44</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>16</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>43</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>24</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
@@ -18859,31 +18866,31 @@
       <c r="AQ20" s="11"/>
       <c r="AR20" s="11"/>
       <c r="AS20" s="11"/>
-    </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="AT20" s="11"/>
+    </row>
+    <row r="21" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
-      <c r="C21" t="str">
+      <c r="C21" s="11"/>
+      <c r="D21" t="str">
         <f>Analysis!D4</f>
         <v>Gordon</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <f>Analysis!E4</f>
         <v>4257</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <f>Analysis!F4</f>
         <v>939</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <f>Analysis!G4</f>
         <v>506</v>
       </c>
-      <c r="G21" s="13">
+      <c r="H21" s="13">
         <f>Analysis!H4</f>
         <v>9.1082605750559438</v>
       </c>
-      <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
@@ -18921,31 +18928,31 @@
       <c r="AQ21" s="11"/>
       <c r="AR21" s="11"/>
       <c r="AS21" s="11"/>
-    </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="AT21" s="11"/>
+    </row>
+    <row r="22" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
-      <c r="C22" t="str">
+      <c r="C22" s="11"/>
+      <c r="D22" t="str">
         <f>Analysis!D5</f>
         <v>Joe</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <f>Analysis!E5</f>
         <v>4261</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <f>Analysis!F5</f>
         <v>765</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <f>Analysis!G5</f>
         <v>591</v>
       </c>
-      <c r="G22" s="13">
+      <c r="H22" s="13">
         <f>Analysis!H5</f>
         <v>8.7873418249724757</v>
       </c>
-      <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
@@ -18983,31 +18990,31 @@
       <c r="AQ22" s="11"/>
       <c r="AR22" s="11"/>
       <c r="AS22" s="11"/>
-    </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="AT22" s="11"/>
+    </row>
+    <row r="23" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
-      <c r="C23" t="str">
+      <c r="C23" s="11"/>
+      <c r="D23" t="str">
         <f>Analysis!D6</f>
         <v>John</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <f>Analysis!E6</f>
         <v>4346</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <f>Analysis!F6</f>
         <v>820</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <f>Analysis!G6</f>
         <v>569</v>
       </c>
-      <c r="G23" s="13">
+      <c r="H23" s="13">
         <f>Analysis!H6</f>
         <v>8.9348131058853042</v>
       </c>
-      <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
@@ -19045,31 +19052,31 @@
       <c r="AQ23" s="11"/>
       <c r="AR23" s="11"/>
       <c r="AS23" s="11"/>
-    </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+      <c r="AT23" s="11"/>
+    </row>
+    <row r="24" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
-      <c r="C24" t="str">
+      <c r="C24" s="11"/>
+      <c r="D24" t="str">
         <f>Analysis!D7</f>
         <v>Kelly</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <f>Analysis!E7</f>
         <v>4209</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <f>Analysis!F7</f>
         <v>817</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <f>Analysis!G7</f>
         <v>556</v>
       </c>
-      <c r="G24" s="13">
+      <c r="H24" s="13">
         <f>Analysis!H7</f>
         <v>9.0099184374427956</v>
       </c>
-      <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
@@ -19107,31 +19114,31 @@
       <c r="AQ24" s="11"/>
       <c r="AR24" s="11"/>
       <c r="AS24" s="11"/>
-    </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+      <c r="AT24" s="11"/>
+    </row>
+    <row r="25" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
-      <c r="C25" t="str">
+      <c r="C25" s="11"/>
+      <c r="D25" t="str">
         <f>Analysis!D8</f>
         <v>Ken</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <f>Analysis!E8</f>
         <v>4403</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <f>Analysis!F8</f>
         <v>815</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <f>Analysis!G8</f>
         <v>513</v>
       </c>
-      <c r="G25" s="13">
+      <c r="H25" s="13">
         <f>Analysis!H8</f>
         <v>9.0697312401404879</v>
       </c>
-      <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
@@ -19169,31 +19176,31 @@
       <c r="AQ25" s="11"/>
       <c r="AR25" s="11"/>
       <c r="AS25" s="11"/>
-    </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+      <c r="AT25" s="11"/>
+    </row>
+    <row r="26" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
-      <c r="C26" t="str">
+      <c r="C26" s="11"/>
+      <c r="D26" t="str">
         <f>Analysis!D9</f>
         <v>Marco</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <f>Analysis!E9</f>
         <v>4176</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <f>Analysis!F9</f>
         <v>775</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <f>Analysis!G9</f>
         <v>511</v>
       </c>
-      <c r="G26" s="13">
+      <c r="H26" s="13">
         <f>Analysis!H9</f>
         <v>9.0478720271100777</v>
       </c>
-      <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
@@ -19231,31 +19238,31 @@
       <c r="AQ26" s="11"/>
       <c r="AR26" s="11"/>
       <c r="AS26" s="11"/>
-    </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+      <c r="AT26" s="11"/>
+    </row>
+    <row r="27" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
-      <c r="C27" t="str">
+      <c r="C27" s="11"/>
+      <c r="D27" t="str">
         <f>Analysis!D10</f>
         <v>Mich</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <f>Analysis!E10</f>
         <v>4199</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <f>Analysis!F10</f>
         <v>875</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <f>Analysis!G10</f>
         <v>520</v>
       </c>
-      <c r="G27" s="13">
+      <c r="H27" s="13">
         <f>Analysis!H10</f>
         <v>9.059739977552109</v>
       </c>
-      <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
@@ -19293,31 +19300,31 @@
       <c r="AQ27" s="11"/>
       <c r="AR27" s="11"/>
       <c r="AS27" s="11"/>
-    </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+      <c r="AT27" s="11"/>
+    </row>
+    <row r="28" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
-      <c r="C28" t="str">
+      <c r="C28" s="11"/>
+      <c r="D28" t="str">
         <f>Analysis!D11</f>
         <v>Noah</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <f>Analysis!E11</f>
         <v>4584</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <f>Analysis!F11</f>
         <v>807</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <f>Analysis!G11</f>
         <v>533</v>
       </c>
-      <c r="G28" s="13">
+      <c r="H28" s="13">
         <f>Analysis!H11</f>
         <v>8.9871943300053694</v>
       </c>
-      <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
@@ -19355,31 +19362,31 @@
       <c r="AQ28" s="11"/>
       <c r="AR28" s="11"/>
       <c r="AS28" s="11"/>
-    </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+      <c r="AT28" s="11"/>
+    </row>
+    <row r="29" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
-      <c r="C29" t="str">
+      <c r="C29" s="11"/>
+      <c r="D29" t="str">
         <f>Analysis!D12</f>
         <v>Patrick</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <f>Analysis!E12</f>
         <v>4081</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <f>Analysis!F12</f>
         <v>764</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <f>Analysis!G12</f>
         <v>555</v>
       </c>
-      <c r="G29" s="13">
+      <c r="H29" s="13">
         <f>Analysis!H12</f>
         <v>8.9022781438302676</v>
       </c>
-      <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
@@ -19417,31 +19424,31 @@
       <c r="AQ29" s="11"/>
       <c r="AR29" s="11"/>
       <c r="AS29" s="11"/>
-    </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
+      <c r="AT29" s="11"/>
+    </row>
+    <row r="30" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
-      <c r="C30" t="str">
+      <c r="C30" s="11"/>
+      <c r="D30" t="str">
         <f>Analysis!D13</f>
         <v>Una</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <f>Analysis!E13</f>
         <v>4405</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <f>Analysis!F13</f>
         <v>900</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <f>Analysis!G13</f>
         <v>531</v>
       </c>
-      <c r="G30" s="13">
+      <c r="H30" s="13">
         <f>Analysis!H13</f>
         <v>9.0295597904386682</v>
       </c>
-      <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
@@ -19479,9 +19486,9 @@
       <c r="AQ30" s="11"/>
       <c r="AR30" s="11"/>
       <c r="AS30" s="11"/>
-    </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
+      <c r="AT30" s="11"/>
+    </row>
+    <row r="31" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -19526,9 +19533,9 @@
       <c r="AQ31" s="11"/>
       <c r="AR31" s="11"/>
       <c r="AS31" s="11"/>
-    </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
+      <c r="AT31" s="11"/>
+    </row>
+    <row r="32" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -19573,9 +19580,9 @@
       <c r="AQ32" s="11"/>
       <c r="AR32" s="11"/>
       <c r="AS32" s="11"/>
-    </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
+      <c r="AT32" s="11"/>
+    </row>
+    <row r="33" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -19620,9 +19627,9 @@
       <c r="AQ33" s="11"/>
       <c r="AR33" s="11"/>
       <c r="AS33" s="11"/>
-    </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
+      <c r="AT33" s="11"/>
+    </row>
+    <row r="34" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -19667,9 +19674,9 @@
       <c r="AQ34" s="11"/>
       <c r="AR34" s="11"/>
       <c r="AS34" s="11"/>
-    </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
+      <c r="AT34" s="11"/>
+    </row>
+    <row r="35" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -19714,9 +19721,9 @@
       <c r="AQ35" s="11"/>
       <c r="AR35" s="11"/>
       <c r="AS35" s="11"/>
-    </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
+      <c r="AT35" s="11"/>
+    </row>
+    <row r="36" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -19761,9 +19768,9 @@
       <c r="AQ36" s="11"/>
       <c r="AR36" s="11"/>
       <c r="AS36" s="11"/>
-    </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+      <c r="AT36" s="11"/>
+    </row>
+    <row r="37" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -19808,9 +19815,9 @@
       <c r="AQ37" s="11"/>
       <c r="AR37" s="11"/>
       <c r="AS37" s="11"/>
-    </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
+      <c r="AT37" s="11"/>
+    </row>
+    <row r="38" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -19855,9 +19862,9 @@
       <c r="AQ38" s="11"/>
       <c r="AR38" s="11"/>
       <c r="AS38" s="11"/>
-    </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
+      <c r="AT38" s="11"/>
+    </row>
+    <row r="39" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -19902,9 +19909,9 @@
       <c r="AQ39" s="11"/>
       <c r="AR39" s="11"/>
       <c r="AS39" s="11"/>
-    </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
+      <c r="AT39" s="11"/>
+    </row>
+    <row r="40" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -19949,9 +19956,9 @@
       <c r="AQ40" s="11"/>
       <c r="AR40" s="11"/>
       <c r="AS40" s="11"/>
-    </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
+      <c r="AT40" s="11"/>
+    </row>
+    <row r="41" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -19996,9 +20003,9 @@
       <c r="AQ41" s="11"/>
       <c r="AR41" s="11"/>
       <c r="AS41" s="11"/>
-    </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
+      <c r="AT41" s="11"/>
+    </row>
+    <row r="42" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -20043,9 +20050,9 @@
       <c r="AQ42" s="11"/>
       <c r="AR42" s="11"/>
       <c r="AS42" s="11"/>
-    </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
+      <c r="AT42" s="11"/>
+    </row>
+    <row r="43" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -20090,9 +20097,9 @@
       <c r="AQ43" s="11"/>
       <c r="AR43" s="11"/>
       <c r="AS43" s="11"/>
-    </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
+      <c r="AT43" s="11"/>
+    </row>
+    <row r="44" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -20137,9 +20144,9 @@
       <c r="AQ44" s="11"/>
       <c r="AR44" s="11"/>
       <c r="AS44" s="11"/>
-    </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
+      <c r="AT44" s="11"/>
+    </row>
+    <row r="45" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -20184,9 +20191,9 @@
       <c r="AQ45" s="11"/>
       <c r="AR45" s="11"/>
       <c r="AS45" s="11"/>
-    </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
+      <c r="AT45" s="11"/>
+    </row>
+    <row r="46" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -20231,9 +20238,9 @@
       <c r="AQ46" s="11"/>
       <c r="AR46" s="11"/>
       <c r="AS46" s="11"/>
-    </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
+      <c r="AT46" s="11"/>
+    </row>
+    <row r="47" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -20278,9 +20285,9 @@
       <c r="AQ47" s="11"/>
       <c r="AR47" s="11"/>
       <c r="AS47" s="11"/>
-    </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
+      <c r="AT47" s="11"/>
+    </row>
+    <row r="48" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -20325,9 +20332,9 @@
       <c r="AQ48" s="11"/>
       <c r="AR48" s="11"/>
       <c r="AS48" s="11"/>
-    </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
+      <c r="AT48" s="11"/>
+    </row>
+    <row r="49" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -20372,9 +20379,9 @@
       <c r="AQ49" s="11"/>
       <c r="AR49" s="11"/>
       <c r="AS49" s="11"/>
-    </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
+      <c r="AT49" s="11"/>
+    </row>
+    <row r="50" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -20419,9 +20426,9 @@
       <c r="AQ50" s="11"/>
       <c r="AR50" s="11"/>
       <c r="AS50" s="11"/>
-    </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
+      <c r="AT50" s="11"/>
+    </row>
+    <row r="51" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -20466,9 +20473,9 @@
       <c r="AQ51" s="11"/>
       <c r="AR51" s="11"/>
       <c r="AS51" s="11"/>
-    </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
+      <c r="AT51" s="11"/>
+    </row>
+    <row r="52" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
@@ -20513,9 +20520,9 @@
       <c r="AQ52" s="11"/>
       <c r="AR52" s="11"/>
       <c r="AS52" s="11"/>
-    </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
+      <c r="AT52" s="11"/>
+    </row>
+    <row r="53" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -20560,9 +20567,9 @@
       <c r="AQ53" s="11"/>
       <c r="AR53" s="11"/>
       <c r="AS53" s="11"/>
-    </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
+      <c r="AT53" s="11"/>
+    </row>
+    <row r="54" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -20607,9 +20614,9 @@
       <c r="AQ54" s="11"/>
       <c r="AR54" s="11"/>
       <c r="AS54" s="11"/>
-    </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
+      <c r="AT54" s="11"/>
+    </row>
+    <row r="55" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -20654,9 +20661,9 @@
       <c r="AQ55" s="11"/>
       <c r="AR55" s="11"/>
       <c r="AS55" s="11"/>
-    </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
+      <c r="AT55" s="11"/>
+    </row>
+    <row r="56" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -20701,9 +20708,9 @@
       <c r="AQ56" s="11"/>
       <c r="AR56" s="11"/>
       <c r="AS56" s="11"/>
-    </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
+      <c r="AT56" s="11"/>
+    </row>
+    <row r="57" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -20748,9 +20755,9 @@
       <c r="AQ57" s="11"/>
       <c r="AR57" s="11"/>
       <c r="AS57" s="11"/>
-    </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
+      <c r="AT57" s="11"/>
+    </row>
+    <row r="58" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -20795,9 +20802,9 @@
       <c r="AQ58" s="11"/>
       <c r="AR58" s="11"/>
       <c r="AS58" s="11"/>
-    </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
+      <c r="AT58" s="11"/>
+    </row>
+    <row r="59" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
@@ -20842,9 +20849,9 @@
       <c r="AQ59" s="11"/>
       <c r="AR59" s="11"/>
       <c r="AS59" s="11"/>
-    </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
+      <c r="AT59" s="11"/>
+    </row>
+    <row r="60" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -20889,9 +20896,9 @@
       <c r="AQ60" s="11"/>
       <c r="AR60" s="11"/>
       <c r="AS60" s="11"/>
-    </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
+      <c r="AT60" s="11"/>
+    </row>
+    <row r="61" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -20936,9 +20943,9 @@
       <c r="AQ61" s="11"/>
       <c r="AR61" s="11"/>
       <c r="AS61" s="11"/>
-    </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
+      <c r="AT61" s="11"/>
+    </row>
+    <row r="62" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -20983,9 +20990,9 @@
       <c r="AQ62" s="11"/>
       <c r="AR62" s="11"/>
       <c r="AS62" s="11"/>
-    </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
+      <c r="AT62" s="11"/>
+    </row>
+    <row r="63" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -21030,9 +21037,9 @@
       <c r="AQ63" s="11"/>
       <c r="AR63" s="11"/>
       <c r="AS63" s="11"/>
-    </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
+      <c r="AT63" s="11"/>
+    </row>
+    <row r="64" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -21077,9 +21084,9 @@
       <c r="AQ64" s="11"/>
       <c r="AR64" s="11"/>
       <c r="AS64" s="11"/>
-    </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
+      <c r="AT64" s="11"/>
+    </row>
+    <row r="65" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -21124,9 +21131,9 @@
       <c r="AQ65" s="11"/>
       <c r="AR65" s="11"/>
       <c r="AS65" s="11"/>
-    </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
+      <c r="AT65" s="11"/>
+    </row>
+    <row r="66" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -21171,9 +21178,9 @@
       <c r="AQ66" s="11"/>
       <c r="AR66" s="11"/>
       <c r="AS66" s="11"/>
-    </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
+      <c r="AT66" s="11"/>
+    </row>
+    <row r="67" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -21218,9 +21225,9 @@
       <c r="AQ67" s="11"/>
       <c r="AR67" s="11"/>
       <c r="AS67" s="11"/>
-    </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
+      <c r="AT67" s="11"/>
+    </row>
+    <row r="68" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -21265,9 +21272,9 @@
       <c r="AQ68" s="11"/>
       <c r="AR68" s="11"/>
       <c r="AS68" s="11"/>
-    </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
+      <c r="AT68" s="11"/>
+    </row>
+    <row r="69" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -21312,9 +21319,9 @@
       <c r="AQ69" s="11"/>
       <c r="AR69" s="11"/>
       <c r="AS69" s="11"/>
-    </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
+      <c r="AT69" s="11"/>
+    </row>
+    <row r="70" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -21359,9 +21366,9 @@
       <c r="AQ70" s="11"/>
       <c r="AR70" s="11"/>
       <c r="AS70" s="11"/>
-    </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
+      <c r="AT70" s="11"/>
+    </row>
+    <row r="71" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -21406,9 +21413,9 @@
       <c r="AQ71" s="11"/>
       <c r="AR71" s="11"/>
       <c r="AS71" s="11"/>
-    </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
+      <c r="AT71" s="11"/>
+    </row>
+    <row r="72" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -21453,9 +21460,9 @@
       <c r="AQ72" s="11"/>
       <c r="AR72" s="11"/>
       <c r="AS72" s="11"/>
-    </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
+      <c r="AT72" s="11"/>
+    </row>
+    <row r="73" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -21500,9 +21507,9 @@
       <c r="AQ73" s="11"/>
       <c r="AR73" s="11"/>
       <c r="AS73" s="11"/>
-    </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
+      <c r="AT73" s="11"/>
+    </row>
+    <row r="74" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -21547,9 +21554,9 @@
       <c r="AQ74" s="11"/>
       <c r="AR74" s="11"/>
       <c r="AS74" s="11"/>
-    </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
+      <c r="AT74" s="11"/>
+    </row>
+    <row r="75" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -21594,9 +21601,9 @@
       <c r="AQ75" s="11"/>
       <c r="AR75" s="11"/>
       <c r="AS75" s="11"/>
-    </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
+      <c r="AT75" s="11"/>
+    </row>
+    <row r="76" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -21641,9 +21648,9 @@
       <c r="AQ76" s="11"/>
       <c r="AR76" s="11"/>
       <c r="AS76" s="11"/>
-    </row>
-    <row r="77" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
+      <c r="AT76" s="11"/>
+    </row>
+    <row r="77" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -21688,9 +21695,9 @@
       <c r="AQ77" s="11"/>
       <c r="AR77" s="11"/>
       <c r="AS77" s="11"/>
-    </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
+      <c r="AT77" s="11"/>
+    </row>
+    <row r="78" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -21735,9 +21742,9 @@
       <c r="AQ78" s="11"/>
       <c r="AR78" s="11"/>
       <c r="AS78" s="11"/>
-    </row>
-    <row r="79" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
+      <c r="AT78" s="11"/>
+    </row>
+    <row r="79" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -21782,9 +21789,9 @@
       <c r="AQ79" s="11"/>
       <c r="AR79" s="11"/>
       <c r="AS79" s="11"/>
-    </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
+      <c r="AT79" s="11"/>
+    </row>
+    <row r="80" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -21829,9 +21836,9 @@
       <c r="AQ80" s="11"/>
       <c r="AR80" s="11"/>
       <c r="AS80" s="11"/>
-    </row>
-    <row r="81" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
+      <c r="AT80" s="11"/>
+    </row>
+    <row r="81" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -21876,9 +21883,9 @@
       <c r="AQ81" s="11"/>
       <c r="AR81" s="11"/>
       <c r="AS81" s="11"/>
-    </row>
-    <row r="82" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
+      <c r="AT81" s="11"/>
+    </row>
+    <row r="82" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -21923,9 +21930,9 @@
       <c r="AQ82" s="11"/>
       <c r="AR82" s="11"/>
       <c r="AS82" s="11"/>
-    </row>
-    <row r="83" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
+      <c r="AT82" s="11"/>
+    </row>
+    <row r="83" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -21970,9 +21977,9 @@
       <c r="AQ83" s="11"/>
       <c r="AR83" s="11"/>
       <c r="AS83" s="11"/>
-    </row>
-    <row r="84" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
+      <c r="AT83" s="11"/>
+    </row>
+    <row r="84" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -22017,9 +22024,9 @@
       <c r="AQ84" s="11"/>
       <c r="AR84" s="11"/>
       <c r="AS84" s="11"/>
-    </row>
-    <row r="85" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
+      <c r="AT84" s="11"/>
+    </row>
+    <row r="85" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -22064,9 +22071,9 @@
       <c r="AQ85" s="11"/>
       <c r="AR85" s="11"/>
       <c r="AS85" s="11"/>
-    </row>
-    <row r="86" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
+      <c r="AT85" s="11"/>
+    </row>
+    <row r="86" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -22111,9 +22118,9 @@
       <c r="AQ86" s="11"/>
       <c r="AR86" s="11"/>
       <c r="AS86" s="11"/>
-    </row>
-    <row r="87" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
+      <c r="AT86" s="11"/>
+    </row>
+    <row r="87" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -22158,9 +22165,9 @@
       <c r="AQ87" s="11"/>
       <c r="AR87" s="11"/>
       <c r="AS87" s="11"/>
-    </row>
-    <row r="88" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
+      <c r="AT87" s="11"/>
+    </row>
+    <row r="88" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -22205,9 +22212,9 @@
       <c r="AQ88" s="11"/>
       <c r="AR88" s="11"/>
       <c r="AS88" s="11"/>
-    </row>
-    <row r="89" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
+      <c r="AT88" s="11"/>
+    </row>
+    <row r="89" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -22252,9 +22259,9 @@
       <c r="AQ89" s="11"/>
       <c r="AR89" s="11"/>
       <c r="AS89" s="11"/>
-    </row>
-    <row r="90" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
+      <c r="AT89" s="11"/>
+    </row>
+    <row r="90" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -22299,9 +22306,9 @@
       <c r="AQ90" s="11"/>
       <c r="AR90" s="11"/>
       <c r="AS90" s="11"/>
-    </row>
-    <row r="91" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
+      <c r="AT90" s="11"/>
+    </row>
+    <row r="91" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -22346,9 +22353,9 @@
       <c r="AQ91" s="11"/>
       <c r="AR91" s="11"/>
       <c r="AS91" s="11"/>
-    </row>
-    <row r="92" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
+      <c r="AT91" s="11"/>
+    </row>
+    <row r="92" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -22393,9 +22400,9 @@
       <c r="AQ92" s="11"/>
       <c r="AR92" s="11"/>
       <c r="AS92" s="11"/>
-    </row>
-    <row r="93" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
+      <c r="AT92" s="11"/>
+    </row>
+    <row r="93" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -22440,9 +22447,9 @@
       <c r="AQ93" s="11"/>
       <c r="AR93" s="11"/>
       <c r="AS93" s="11"/>
-    </row>
-    <row r="94" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A94" s="11"/>
+      <c r="AT93" s="11"/>
+    </row>
+    <row r="94" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -22487,9 +22494,9 @@
       <c r="AQ94" s="11"/>
       <c r="AR94" s="11"/>
       <c r="AS94" s="11"/>
-    </row>
-    <row r="95" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A95" s="11"/>
+      <c r="AT94" s="11"/>
+    </row>
+    <row r="95" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -22534,9 +22541,9 @@
       <c r="AQ95" s="11"/>
       <c r="AR95" s="11"/>
       <c r="AS95" s="11"/>
-    </row>
-    <row r="96" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A96" s="11"/>
+      <c r="AT95" s="11"/>
+    </row>
+    <row r="96" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
@@ -22581,9 +22588,9 @@
       <c r="AQ96" s="11"/>
       <c r="AR96" s="11"/>
       <c r="AS96" s="11"/>
-    </row>
-    <row r="97" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A97" s="11"/>
+      <c r="AT96" s="11"/>
+    </row>
+    <row r="97" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
@@ -22628,9 +22635,9 @@
       <c r="AQ97" s="11"/>
       <c r="AR97" s="11"/>
       <c r="AS97" s="11"/>
-    </row>
-    <row r="98" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A98" s="11"/>
+      <c r="AT97" s="11"/>
+    </row>
+    <row r="98" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
@@ -22675,9 +22682,9 @@
       <c r="AQ98" s="11"/>
       <c r="AR98" s="11"/>
       <c r="AS98" s="11"/>
-    </row>
-    <row r="99" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A99" s="11"/>
+      <c r="AT98" s="11"/>
+    </row>
+    <row r="99" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
@@ -22722,9 +22729,9 @@
       <c r="AQ99" s="11"/>
       <c r="AR99" s="11"/>
       <c r="AS99" s="11"/>
-    </row>
-    <row r="100" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A100" s="11"/>
+      <c r="AT99" s="11"/>
+    </row>
+    <row r="100" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
@@ -22769,9 +22776,9 @@
       <c r="AQ100" s="11"/>
       <c r="AR100" s="11"/>
       <c r="AS100" s="11"/>
-    </row>
-    <row r="101" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A101" s="11"/>
+      <c r="AT100" s="11"/>
+    </row>
+    <row r="101" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
@@ -22816,9 +22823,9 @@
       <c r="AQ101" s="11"/>
       <c r="AR101" s="11"/>
       <c r="AS101" s="11"/>
-    </row>
-    <row r="102" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A102" s="11"/>
+      <c r="AT101" s="11"/>
+    </row>
+    <row r="102" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
@@ -22863,9 +22870,9 @@
       <c r="AQ102" s="11"/>
       <c r="AR102" s="11"/>
       <c r="AS102" s="11"/>
-    </row>
-    <row r="103" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A103" s="11"/>
+      <c r="AT102" s="11"/>
+    </row>
+    <row r="103" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
@@ -22910,9 +22917,9 @@
       <c r="AQ103" s="11"/>
       <c r="AR103" s="11"/>
       <c r="AS103" s="11"/>
-    </row>
-    <row r="104" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A104" s="11"/>
+      <c r="AT103" s="11"/>
+    </row>
+    <row r="104" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
@@ -22957,9 +22964,9 @@
       <c r="AQ104" s="11"/>
       <c r="AR104" s="11"/>
       <c r="AS104" s="11"/>
-    </row>
-    <row r="105" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A105" s="11"/>
+      <c r="AT104" s="11"/>
+    </row>
+    <row r="105" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
@@ -23004,9 +23011,9 @@
       <c r="AQ105" s="11"/>
       <c r="AR105" s="11"/>
       <c r="AS105" s="11"/>
-    </row>
-    <row r="106" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A106" s="11"/>
+      <c r="AT105" s="11"/>
+    </row>
+    <row r="106" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
@@ -23051,9 +23058,9 @@
       <c r="AQ106" s="11"/>
       <c r="AR106" s="11"/>
       <c r="AS106" s="11"/>
-    </row>
-    <row r="107" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A107" s="11"/>
+      <c r="AT106" s="11"/>
+    </row>
+    <row r="107" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
@@ -23098,9 +23105,9 @@
       <c r="AQ107" s="11"/>
       <c r="AR107" s="11"/>
       <c r="AS107" s="11"/>
-    </row>
-    <row r="108" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A108" s="11"/>
+      <c r="AT107" s="11"/>
+    </row>
+    <row r="108" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
@@ -23145,9 +23152,9 @@
       <c r="AQ108" s="11"/>
       <c r="AR108" s="11"/>
       <c r="AS108" s="11"/>
-    </row>
-    <row r="109" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A109" s="11"/>
+      <c r="AT108" s="11"/>
+    </row>
+    <row r="109" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
@@ -23192,9 +23199,9 @@
       <c r="AQ109" s="11"/>
       <c r="AR109" s="11"/>
       <c r="AS109" s="11"/>
-    </row>
-    <row r="110" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A110" s="11"/>
+      <c r="AT109" s="11"/>
+    </row>
+    <row r="110" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -23239,9 +23246,9 @@
       <c r="AQ110" s="11"/>
       <c r="AR110" s="11"/>
       <c r="AS110" s="11"/>
-    </row>
-    <row r="111" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A111" s="11"/>
+      <c r="AT110" s="11"/>
+    </row>
+    <row r="111" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
@@ -23286,9 +23293,9 @@
       <c r="AQ111" s="11"/>
       <c r="AR111" s="11"/>
       <c r="AS111" s="11"/>
-    </row>
-    <row r="112" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A112" s="11"/>
+      <c r="AT111" s="11"/>
+    </row>
+    <row r="112" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -23333,9 +23340,9 @@
       <c r="AQ112" s="11"/>
       <c r="AR112" s="11"/>
       <c r="AS112" s="11"/>
-    </row>
-    <row r="113" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A113" s="11"/>
+      <c r="AT112" s="11"/>
+    </row>
+    <row r="113" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
@@ -23380,9 +23387,9 @@
       <c r="AQ113" s="11"/>
       <c r="AR113" s="11"/>
       <c r="AS113" s="11"/>
-    </row>
-    <row r="114" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A114" s="11"/>
+      <c r="AT113" s="11"/>
+    </row>
+    <row r="114" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
@@ -23427,9 +23434,9 @@
       <c r="AQ114" s="11"/>
       <c r="AR114" s="11"/>
       <c r="AS114" s="11"/>
-    </row>
-    <row r="115" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A115" s="11"/>
+      <c r="AT114" s="11"/>
+    </row>
+    <row r="115" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
@@ -23474,9 +23481,9 @@
       <c r="AQ115" s="11"/>
       <c r="AR115" s="11"/>
       <c r="AS115" s="11"/>
-    </row>
-    <row r="116" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A116" s="11"/>
+      <c r="AT115" s="11"/>
+    </row>
+    <row r="116" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
@@ -23521,9 +23528,9 @@
       <c r="AQ116" s="11"/>
       <c r="AR116" s="11"/>
       <c r="AS116" s="11"/>
-    </row>
-    <row r="117" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A117" s="11"/>
+      <c r="AT116" s="11"/>
+    </row>
+    <row r="117" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
       <c r="D117" s="11"/>
@@ -23568,9 +23575,9 @@
       <c r="AQ117" s="11"/>
       <c r="AR117" s="11"/>
       <c r="AS117" s="11"/>
-    </row>
-    <row r="118" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A118" s="11"/>
+      <c r="AT117" s="11"/>
+    </row>
+    <row r="118" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
@@ -23615,9 +23622,9 @@
       <c r="AQ118" s="11"/>
       <c r="AR118" s="11"/>
       <c r="AS118" s="11"/>
-    </row>
-    <row r="119" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A119" s="11"/>
+      <c r="AT118" s="11"/>
+    </row>
+    <row r="119" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
       <c r="D119" s="11"/>
@@ -23662,9 +23669,9 @@
       <c r="AQ119" s="11"/>
       <c r="AR119" s="11"/>
       <c r="AS119" s="11"/>
-    </row>
-    <row r="120" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A120" s="11"/>
+      <c r="AT119" s="11"/>
+    </row>
+    <row r="120" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
@@ -23709,9 +23716,9 @@
       <c r="AQ120" s="11"/>
       <c r="AR120" s="11"/>
       <c r="AS120" s="11"/>
-    </row>
-    <row r="121" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A121" s="11"/>
+      <c r="AT120" s="11"/>
+    </row>
+    <row r="121" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
       <c r="D121" s="11"/>
@@ -23756,9 +23763,9 @@
       <c r="AQ121" s="11"/>
       <c r="AR121" s="11"/>
       <c r="AS121" s="11"/>
-    </row>
-    <row r="122" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A122" s="11"/>
+      <c r="AT121" s="11"/>
+    </row>
+    <row r="122" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
@@ -23803,9 +23810,9 @@
       <c r="AQ122" s="11"/>
       <c r="AR122" s="11"/>
       <c r="AS122" s="11"/>
-    </row>
-    <row r="123" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A123" s="11"/>
+      <c r="AT122" s="11"/>
+    </row>
+    <row r="123" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
@@ -23850,9 +23857,9 @@
       <c r="AQ123" s="11"/>
       <c r="AR123" s="11"/>
       <c r="AS123" s="11"/>
-    </row>
-    <row r="124" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A124" s="11"/>
+      <c r="AT123" s="11"/>
+    </row>
+    <row r="124" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
@@ -23897,9 +23904,9 @@
       <c r="AQ124" s="11"/>
       <c r="AR124" s="11"/>
       <c r="AS124" s="11"/>
-    </row>
-    <row r="125" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A125" s="11"/>
+      <c r="AT124" s="11"/>
+    </row>
+    <row r="125" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
       <c r="D125" s="11"/>
@@ -23944,9 +23951,9 @@
       <c r="AQ125" s="11"/>
       <c r="AR125" s="11"/>
       <c r="AS125" s="11"/>
-    </row>
-    <row r="126" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A126" s="11"/>
+      <c r="AT125" s="11"/>
+    </row>
+    <row r="126" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
@@ -23991,9 +23998,9 @@
       <c r="AQ126" s="11"/>
       <c r="AR126" s="11"/>
       <c r="AS126" s="11"/>
-    </row>
-    <row r="127" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A127" s="11"/>
+      <c r="AT126" s="11"/>
+    </row>
+    <row r="127" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
       <c r="D127" s="11"/>
@@ -24038,9 +24045,9 @@
       <c r="AQ127" s="11"/>
       <c r="AR127" s="11"/>
       <c r="AS127" s="11"/>
-    </row>
-    <row r="128" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A128" s="11"/>
+      <c r="AT127" s="11"/>
+    </row>
+    <row r="128" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
@@ -24085,9 +24092,9 @@
       <c r="AQ128" s="11"/>
       <c r="AR128" s="11"/>
       <c r="AS128" s="11"/>
-    </row>
-    <row r="129" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A129" s="11"/>
+      <c r="AT128" s="11"/>
+    </row>
+    <row r="129" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
       <c r="D129" s="11"/>
@@ -24132,9 +24139,9 @@
       <c r="AQ129" s="11"/>
       <c r="AR129" s="11"/>
       <c r="AS129" s="11"/>
-    </row>
-    <row r="130" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A130" s="11"/>
+      <c r="AT129" s="11"/>
+    </row>
+    <row r="130" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
@@ -24179,9 +24186,9 @@
       <c r="AQ130" s="11"/>
       <c r="AR130" s="11"/>
       <c r="AS130" s="11"/>
-    </row>
-    <row r="131" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A131" s="11"/>
+      <c r="AT130" s="11"/>
+    </row>
+    <row r="131" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
       <c r="D131" s="11"/>
@@ -24226,9 +24233,9 @@
       <c r="AQ131" s="11"/>
       <c r="AR131" s="11"/>
       <c r="AS131" s="11"/>
-    </row>
-    <row r="132" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A132" s="11"/>
+      <c r="AT131" s="11"/>
+    </row>
+    <row r="132" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
@@ -24273,9 +24280,9 @@
       <c r="AQ132" s="11"/>
       <c r="AR132" s="11"/>
       <c r="AS132" s="11"/>
-    </row>
-    <row r="133" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A133" s="11"/>
+      <c r="AT132" s="11"/>
+    </row>
+    <row r="133" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
@@ -24320,9 +24327,9 @@
       <c r="AQ133" s="11"/>
       <c r="AR133" s="11"/>
       <c r="AS133" s="11"/>
-    </row>
-    <row r="134" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A134" s="11"/>
+      <c r="AT133" s="11"/>
+    </row>
+    <row r="134" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
@@ -24367,9 +24374,9 @@
       <c r="AQ134" s="11"/>
       <c r="AR134" s="11"/>
       <c r="AS134" s="11"/>
-    </row>
-    <row r="135" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A135" s="11"/>
+      <c r="AT134" s="11"/>
+    </row>
+    <row r="135" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
@@ -24414,9 +24421,9 @@
       <c r="AQ135" s="11"/>
       <c r="AR135" s="11"/>
       <c r="AS135" s="11"/>
-    </row>
-    <row r="136" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A136" s="11"/>
+      <c r="AT135" s="11"/>
+    </row>
+    <row r="136" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
@@ -24461,9 +24468,9 @@
       <c r="AQ136" s="11"/>
       <c r="AR136" s="11"/>
       <c r="AS136" s="11"/>
-    </row>
-    <row r="137" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A137" s="11"/>
+      <c r="AT136" s="11"/>
+    </row>
+    <row r="137" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
       <c r="D137" s="11"/>
@@ -24508,9 +24515,9 @@
       <c r="AQ137" s="11"/>
       <c r="AR137" s="11"/>
       <c r="AS137" s="11"/>
-    </row>
-    <row r="138" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A138" s="11"/>
+      <c r="AT137" s="11"/>
+    </row>
+    <row r="138" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
@@ -24555,9 +24562,9 @@
       <c r="AQ138" s="11"/>
       <c r="AR138" s="11"/>
       <c r="AS138" s="11"/>
-    </row>
-    <row r="139" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A139" s="11"/>
+      <c r="AT138" s="11"/>
+    </row>
+    <row r="139" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
@@ -24602,9 +24609,9 @@
       <c r="AQ139" s="11"/>
       <c r="AR139" s="11"/>
       <c r="AS139" s="11"/>
-    </row>
-    <row r="140" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A140" s="11"/>
+      <c r="AT139" s="11"/>
+    </row>
+    <row r="140" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
@@ -24649,9 +24656,9 @@
       <c r="AQ140" s="11"/>
       <c r="AR140" s="11"/>
       <c r="AS140" s="11"/>
-    </row>
-    <row r="141" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A141" s="11"/>
+      <c r="AT140" s="11"/>
+    </row>
+    <row r="141" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
@@ -24696,9 +24703,9 @@
       <c r="AQ141" s="11"/>
       <c r="AR141" s="11"/>
       <c r="AS141" s="11"/>
-    </row>
-    <row r="142" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A142" s="11"/>
+      <c r="AT141" s="11"/>
+    </row>
+    <row r="142" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
@@ -24743,9 +24750,9 @@
       <c r="AQ142" s="11"/>
       <c r="AR142" s="11"/>
       <c r="AS142" s="11"/>
-    </row>
-    <row r="143" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A143" s="11"/>
+      <c r="AT142" s="11"/>
+    </row>
+    <row r="143" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
@@ -24790,9 +24797,9 @@
       <c r="AQ143" s="11"/>
       <c r="AR143" s="11"/>
       <c r="AS143" s="11"/>
-    </row>
-    <row r="144" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A144" s="11"/>
+      <c r="AT143" s="11"/>
+    </row>
+    <row r="144" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
@@ -24837,9 +24844,9 @@
       <c r="AQ144" s="11"/>
       <c r="AR144" s="11"/>
       <c r="AS144" s="11"/>
-    </row>
-    <row r="145" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A145" s="11"/>
+      <c r="AT144" s="11"/>
+    </row>
+    <row r="145" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
       <c r="D145" s="11"/>
@@ -24884,9 +24891,9 @@
       <c r="AQ145" s="11"/>
       <c r="AR145" s="11"/>
       <c r="AS145" s="11"/>
-    </row>
-    <row r="146" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A146" s="11"/>
+      <c r="AT145" s="11"/>
+    </row>
+    <row r="146" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
@@ -24931,9 +24938,9 @@
       <c r="AQ146" s="11"/>
       <c r="AR146" s="11"/>
       <c r="AS146" s="11"/>
-    </row>
-    <row r="147" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A147" s="11"/>
+      <c r="AT146" s="11"/>
+    </row>
+    <row r="147" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
       <c r="D147" s="11"/>
@@ -24978,9 +24985,9 @@
       <c r="AQ147" s="11"/>
       <c r="AR147" s="11"/>
       <c r="AS147" s="11"/>
-    </row>
-    <row r="148" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A148" s="11"/>
+      <c r="AT147" s="11"/>
+    </row>
+    <row r="148" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
@@ -25025,9 +25032,9 @@
       <c r="AQ148" s="11"/>
       <c r="AR148" s="11"/>
       <c r="AS148" s="11"/>
-    </row>
-    <row r="149" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A149" s="11"/>
+      <c r="AT148" s="11"/>
+    </row>
+    <row r="149" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
@@ -25072,9 +25079,9 @@
       <c r="AQ149" s="11"/>
       <c r="AR149" s="11"/>
       <c r="AS149" s="11"/>
-    </row>
-    <row r="150" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A150" s="11"/>
+      <c r="AT149" s="11"/>
+    </row>
+    <row r="150" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
@@ -25119,9 +25126,9 @@
       <c r="AQ150" s="11"/>
       <c r="AR150" s="11"/>
       <c r="AS150" s="11"/>
-    </row>
-    <row r="151" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A151" s="11"/>
+      <c r="AT150" s="11"/>
+    </row>
+    <row r="151" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
@@ -25166,9 +25173,9 @@
       <c r="AQ151" s="11"/>
       <c r="AR151" s="11"/>
       <c r="AS151" s="11"/>
-    </row>
-    <row r="152" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A152" s="11"/>
+      <c r="AT151" s="11"/>
+    </row>
+    <row r="152" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
@@ -25213,9 +25220,9 @@
       <c r="AQ152" s="11"/>
       <c r="AR152" s="11"/>
       <c r="AS152" s="11"/>
-    </row>
-    <row r="153" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A153" s="11"/>
+      <c r="AT152" s="11"/>
+    </row>
+    <row r="153" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
@@ -25260,9 +25267,9 @@
       <c r="AQ153" s="11"/>
       <c r="AR153" s="11"/>
       <c r="AS153" s="11"/>
-    </row>
-    <row r="154" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A154" s="11"/>
+      <c r="AT153" s="11"/>
+    </row>
+    <row r="154" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
@@ -25307,9 +25314,9 @@
       <c r="AQ154" s="11"/>
       <c r="AR154" s="11"/>
       <c r="AS154" s="11"/>
-    </row>
-    <row r="155" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A155" s="11"/>
+      <c r="AT154" s="11"/>
+    </row>
+    <row r="155" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
@@ -25354,9 +25361,9 @@
       <c r="AQ155" s="11"/>
       <c r="AR155" s="11"/>
       <c r="AS155" s="11"/>
-    </row>
-    <row r="156" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A156" s="11"/>
+      <c r="AT155" s="11"/>
+    </row>
+    <row r="156" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
@@ -25401,9 +25408,9 @@
       <c r="AQ156" s="11"/>
       <c r="AR156" s="11"/>
       <c r="AS156" s="11"/>
-    </row>
-    <row r="157" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A157" s="11"/>
+      <c r="AT156" s="11"/>
+    </row>
+    <row r="157" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
@@ -25448,9 +25455,9 @@
       <c r="AQ157" s="11"/>
       <c r="AR157" s="11"/>
       <c r="AS157" s="11"/>
-    </row>
-    <row r="158" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A158" s="11"/>
+      <c r="AT157" s="11"/>
+    </row>
+    <row r="158" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
@@ -25495,9 +25502,9 @@
       <c r="AQ158" s="11"/>
       <c r="AR158" s="11"/>
       <c r="AS158" s="11"/>
-    </row>
-    <row r="159" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A159" s="11"/>
+      <c r="AT158" s="11"/>
+    </row>
+    <row r="159" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
@@ -25542,9 +25549,9 @@
       <c r="AQ159" s="11"/>
       <c r="AR159" s="11"/>
       <c r="AS159" s="11"/>
-    </row>
-    <row r="160" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A160" s="11"/>
+      <c r="AT159" s="11"/>
+    </row>
+    <row r="160" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
@@ -25589,9 +25596,9 @@
       <c r="AQ160" s="11"/>
       <c r="AR160" s="11"/>
       <c r="AS160" s="11"/>
-    </row>
-    <row r="161" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A161" s="11"/>
+      <c r="AT160" s="11"/>
+    </row>
+    <row r="161" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
@@ -25636,9 +25643,9 @@
       <c r="AQ161" s="11"/>
       <c r="AR161" s="11"/>
       <c r="AS161" s="11"/>
-    </row>
-    <row r="162" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A162" s="11"/>
+      <c r="AT161" s="11"/>
+    </row>
+    <row r="162" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
@@ -25683,9 +25690,9 @@
       <c r="AQ162" s="11"/>
       <c r="AR162" s="11"/>
       <c r="AS162" s="11"/>
-    </row>
-    <row r="163" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A163" s="11"/>
+      <c r="AT162" s="11"/>
+    </row>
+    <row r="163" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
@@ -25730,9 +25737,9 @@
       <c r="AQ163" s="11"/>
       <c r="AR163" s="11"/>
       <c r="AS163" s="11"/>
-    </row>
-    <row r="164" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A164" s="11"/>
+      <c r="AT163" s="11"/>
+    </row>
+    <row r="164" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
@@ -25777,9 +25784,9 @@
       <c r="AQ164" s="11"/>
       <c r="AR164" s="11"/>
       <c r="AS164" s="11"/>
-    </row>
-    <row r="165" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A165" s="11"/>
+      <c r="AT164" s="11"/>
+    </row>
+    <row r="165" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
@@ -25824,9 +25831,9 @@
       <c r="AQ165" s="11"/>
       <c r="AR165" s="11"/>
       <c r="AS165" s="11"/>
-    </row>
-    <row r="166" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A166" s="11"/>
+      <c r="AT165" s="11"/>
+    </row>
+    <row r="166" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
@@ -25871,9 +25878,9 @@
       <c r="AQ166" s="11"/>
       <c r="AR166" s="11"/>
       <c r="AS166" s="11"/>
-    </row>
-    <row r="167" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A167" s="11"/>
+      <c r="AT166" s="11"/>
+    </row>
+    <row r="167" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
       <c r="D167" s="11"/>
@@ -25918,9 +25925,9 @@
       <c r="AQ167" s="11"/>
       <c r="AR167" s="11"/>
       <c r="AS167" s="11"/>
-    </row>
-    <row r="168" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A168" s="11"/>
+      <c r="AT167" s="11"/>
+    </row>
+    <row r="168" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
@@ -25965,9 +25972,9 @@
       <c r="AQ168" s="11"/>
       <c r="AR168" s="11"/>
       <c r="AS168" s="11"/>
-    </row>
-    <row r="169" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A169" s="11"/>
+      <c r="AT168" s="11"/>
+    </row>
+    <row r="169" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
@@ -26012,9 +26019,9 @@
       <c r="AQ169" s="11"/>
       <c r="AR169" s="11"/>
       <c r="AS169" s="11"/>
-    </row>
-    <row r="170" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A170" s="11"/>
+      <c r="AT169" s="11"/>
+    </row>
+    <row r="170" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
@@ -26059,9 +26066,9 @@
       <c r="AQ170" s="11"/>
       <c r="AR170" s="11"/>
       <c r="AS170" s="11"/>
-    </row>
-    <row r="171" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A171" s="11"/>
+      <c r="AT170" s="11"/>
+    </row>
+    <row r="171" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
@@ -26106,9 +26113,9 @@
       <c r="AQ171" s="11"/>
       <c r="AR171" s="11"/>
       <c r="AS171" s="11"/>
-    </row>
-    <row r="172" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A172" s="11"/>
+      <c r="AT171" s="11"/>
+    </row>
+    <row r="172" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
@@ -26153,9 +26160,9 @@
       <c r="AQ172" s="11"/>
       <c r="AR172" s="11"/>
       <c r="AS172" s="11"/>
-    </row>
-    <row r="173" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A173" s="11"/>
+      <c r="AT172" s="11"/>
+    </row>
+    <row r="173" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
@@ -26200,9 +26207,9 @@
       <c r="AQ173" s="11"/>
       <c r="AR173" s="11"/>
       <c r="AS173" s="11"/>
-    </row>
-    <row r="174" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A174" s="11"/>
+      <c r="AT173" s="11"/>
+    </row>
+    <row r="174" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
@@ -26247,9 +26254,9 @@
       <c r="AQ174" s="11"/>
       <c r="AR174" s="11"/>
       <c r="AS174" s="11"/>
-    </row>
-    <row r="175" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A175" s="11"/>
+      <c r="AT174" s="11"/>
+    </row>
+    <row r="175" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
@@ -26294,9 +26301,9 @@
       <c r="AQ175" s="11"/>
       <c r="AR175" s="11"/>
       <c r="AS175" s="11"/>
-    </row>
-    <row r="176" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A176" s="11"/>
+      <c r="AT175" s="11"/>
+    </row>
+    <row r="176" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
@@ -26341,9 +26348,9 @@
       <c r="AQ176" s="11"/>
       <c r="AR176" s="11"/>
       <c r="AS176" s="11"/>
-    </row>
-    <row r="177" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A177" s="11"/>
+      <c r="AT176" s="11"/>
+    </row>
+    <row r="177" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
@@ -26388,9 +26395,9 @@
       <c r="AQ177" s="11"/>
       <c r="AR177" s="11"/>
       <c r="AS177" s="11"/>
-    </row>
-    <row r="178" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A178" s="11"/>
+      <c r="AT177" s="11"/>
+    </row>
+    <row r="178" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
@@ -26435,9 +26442,9 @@
       <c r="AQ178" s="11"/>
       <c r="AR178" s="11"/>
       <c r="AS178" s="11"/>
-    </row>
-    <row r="179" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A179" s="11"/>
+      <c r="AT178" s="11"/>
+    </row>
+    <row r="179" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
       <c r="D179" s="11"/>
@@ -26482,9 +26489,9 @@
       <c r="AQ179" s="11"/>
       <c r="AR179" s="11"/>
       <c r="AS179" s="11"/>
-    </row>
-    <row r="180" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A180" s="11"/>
+      <c r="AT179" s="11"/>
+    </row>
+    <row r="180" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
@@ -26529,9 +26536,9 @@
       <c r="AQ180" s="11"/>
       <c r="AR180" s="11"/>
       <c r="AS180" s="11"/>
-    </row>
-    <row r="181" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A181" s="11"/>
+      <c r="AT180" s="11"/>
+    </row>
+    <row r="181" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
       <c r="D181" s="11"/>
@@ -26576,9 +26583,9 @@
       <c r="AQ181" s="11"/>
       <c r="AR181" s="11"/>
       <c r="AS181" s="11"/>
-    </row>
-    <row r="182" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A182" s="11"/>
+      <c r="AT181" s="11"/>
+    </row>
+    <row r="182" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
@@ -26623,9 +26630,9 @@
       <c r="AQ182" s="11"/>
       <c r="AR182" s="11"/>
       <c r="AS182" s="11"/>
-    </row>
-    <row r="183" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A183" s="11"/>
+      <c r="AT182" s="11"/>
+    </row>
+    <row r="183" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
@@ -26670,9 +26677,9 @@
       <c r="AQ183" s="11"/>
       <c r="AR183" s="11"/>
       <c r="AS183" s="11"/>
-    </row>
-    <row r="184" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A184" s="11"/>
+      <c r="AT183" s="11"/>
+    </row>
+    <row r="184" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
@@ -26717,9 +26724,9 @@
       <c r="AQ184" s="11"/>
       <c r="AR184" s="11"/>
       <c r="AS184" s="11"/>
-    </row>
-    <row r="185" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A185" s="11"/>
+      <c r="AT184" s="11"/>
+    </row>
+    <row r="185" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
@@ -26764,9 +26771,9 @@
       <c r="AQ185" s="11"/>
       <c r="AR185" s="11"/>
       <c r="AS185" s="11"/>
-    </row>
-    <row r="186" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A186" s="11"/>
+      <c r="AT185" s="11"/>
+    </row>
+    <row r="186" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
@@ -26811,9 +26818,9 @@
       <c r="AQ186" s="11"/>
       <c r="AR186" s="11"/>
       <c r="AS186" s="11"/>
-    </row>
-    <row r="187" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A187" s="11"/>
+      <c r="AT186" s="11"/>
+    </row>
+    <row r="187" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
@@ -26858,9 +26865,9 @@
       <c r="AQ187" s="11"/>
       <c r="AR187" s="11"/>
       <c r="AS187" s="11"/>
-    </row>
-    <row r="188" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A188" s="11"/>
+      <c r="AT187" s="11"/>
+    </row>
+    <row r="188" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
@@ -26905,9 +26912,9 @@
       <c r="AQ188" s="11"/>
       <c r="AR188" s="11"/>
       <c r="AS188" s="11"/>
-    </row>
-    <row r="189" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A189" s="11"/>
+      <c r="AT188" s="11"/>
+    </row>
+    <row r="189" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
@@ -26952,9 +26959,9 @@
       <c r="AQ189" s="11"/>
       <c r="AR189" s="11"/>
       <c r="AS189" s="11"/>
-    </row>
-    <row r="190" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A190" s="11"/>
+      <c r="AT189" s="11"/>
+    </row>
+    <row r="190" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
@@ -26999,9 +27006,9 @@
       <c r="AQ190" s="11"/>
       <c r="AR190" s="11"/>
       <c r="AS190" s="11"/>
-    </row>
-    <row r="191" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A191" s="11"/>
+      <c r="AT190" s="11"/>
+    </row>
+    <row r="191" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
@@ -27046,9 +27053,9 @@
       <c r="AQ191" s="11"/>
       <c r="AR191" s="11"/>
       <c r="AS191" s="11"/>
-    </row>
-    <row r="192" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A192" s="11"/>
+      <c r="AT191" s="11"/>
+    </row>
+    <row r="192" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
       <c r="D192" s="11"/>
@@ -27093,9 +27100,9 @@
       <c r="AQ192" s="11"/>
       <c r="AR192" s="11"/>
       <c r="AS192" s="11"/>
-    </row>
-    <row r="193" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A193" s="11"/>
+      <c r="AT192" s="11"/>
+    </row>
+    <row r="193" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
@@ -27140,9 +27147,9 @@
       <c r="AQ193" s="11"/>
       <c r="AR193" s="11"/>
       <c r="AS193" s="11"/>
-    </row>
-    <row r="194" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A194" s="11"/>
+      <c r="AT193" s="11"/>
+    </row>
+    <row r="194" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
@@ -27187,9 +27194,9 @@
       <c r="AQ194" s="11"/>
       <c r="AR194" s="11"/>
       <c r="AS194" s="11"/>
-    </row>
-    <row r="195" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A195" s="11"/>
+      <c r="AT194" s="11"/>
+    </row>
+    <row r="195" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
@@ -27234,9 +27241,9 @@
       <c r="AQ195" s="11"/>
       <c r="AR195" s="11"/>
       <c r="AS195" s="11"/>
-    </row>
-    <row r="196" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A196" s="11"/>
+      <c r="AT195" s="11"/>
+    </row>
+    <row r="196" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
@@ -27281,9 +27288,9 @@
       <c r="AQ196" s="11"/>
       <c r="AR196" s="11"/>
       <c r="AS196" s="11"/>
-    </row>
-    <row r="197" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A197" s="11"/>
+      <c r="AT196" s="11"/>
+    </row>
+    <row r="197" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
@@ -27328,9 +27335,9 @@
       <c r="AQ197" s="11"/>
       <c r="AR197" s="11"/>
       <c r="AS197" s="11"/>
-    </row>
-    <row r="198" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A198" s="11"/>
+      <c r="AT197" s="11"/>
+    </row>
+    <row r="198" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
@@ -27375,9 +27382,9 @@
       <c r="AQ198" s="11"/>
       <c r="AR198" s="11"/>
       <c r="AS198" s="11"/>
-    </row>
-    <row r="199" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A199" s="11"/>
+      <c r="AT198" s="11"/>
+    </row>
+    <row r="199" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
       <c r="D199" s="11"/>
@@ -27422,9 +27429,9 @@
       <c r="AQ199" s="11"/>
       <c r="AR199" s="11"/>
       <c r="AS199" s="11"/>
-    </row>
-    <row r="200" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A200" s="11"/>
+      <c r="AT199" s="11"/>
+    </row>
+    <row r="200" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
@@ -27469,9 +27476,9 @@
       <c r="AQ200" s="11"/>
       <c r="AR200" s="11"/>
       <c r="AS200" s="11"/>
-    </row>
-    <row r="201" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A201" s="11"/>
+      <c r="AT200" s="11"/>
+    </row>
+    <row r="201" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
       <c r="D201" s="11"/>
@@ -27516,9 +27523,9 @@
       <c r="AQ201" s="11"/>
       <c r="AR201" s="11"/>
       <c r="AS201" s="11"/>
-    </row>
-    <row r="202" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A202" s="11"/>
+      <c r="AT201" s="11"/>
+    </row>
+    <row r="202" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
@@ -27563,9 +27570,9 @@
       <c r="AQ202" s="11"/>
       <c r="AR202" s="11"/>
       <c r="AS202" s="11"/>
-    </row>
-    <row r="203" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A203" s="11"/>
+      <c r="AT202" s="11"/>
+    </row>
+    <row r="203" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
       <c r="D203" s="11"/>
@@ -27610,9 +27617,9 @@
       <c r="AQ203" s="11"/>
       <c r="AR203" s="11"/>
       <c r="AS203" s="11"/>
-    </row>
-    <row r="204" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A204" s="11"/>
+      <c r="AT203" s="11"/>
+    </row>
+    <row r="204" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
       <c r="D204" s="11"/>
@@ -27657,9 +27664,9 @@
       <c r="AQ204" s="11"/>
       <c r="AR204" s="11"/>
       <c r="AS204" s="11"/>
-    </row>
-    <row r="205" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A205" s="11"/>
+      <c r="AT204" s="11"/>
+    </row>
+    <row r="205" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
       <c r="D205" s="11"/>
@@ -27704,9 +27711,9 @@
       <c r="AQ205" s="11"/>
       <c r="AR205" s="11"/>
       <c r="AS205" s="11"/>
-    </row>
-    <row r="206" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A206" s="11"/>
+      <c r="AT205" s="11"/>
+    </row>
+    <row r="206" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
       <c r="D206" s="11"/>
@@ -27751,9 +27758,9 @@
       <c r="AQ206" s="11"/>
       <c r="AR206" s="11"/>
       <c r="AS206" s="11"/>
-    </row>
-    <row r="207" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A207" s="11"/>
+      <c r="AT206" s="11"/>
+    </row>
+    <row r="207" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
       <c r="D207" s="11"/>
@@ -27798,9 +27805,9 @@
       <c r="AQ207" s="11"/>
       <c r="AR207" s="11"/>
       <c r="AS207" s="11"/>
-    </row>
-    <row r="208" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A208" s="11"/>
+      <c r="AT207" s="11"/>
+    </row>
+    <row r="208" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
       <c r="D208" s="11"/>
@@ -27845,9 +27852,9 @@
       <c r="AQ208" s="11"/>
       <c r="AR208" s="11"/>
       <c r="AS208" s="11"/>
-    </row>
-    <row r="209" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A209" s="11"/>
+      <c r="AT208" s="11"/>
+    </row>
+    <row r="209" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
       <c r="D209" s="11"/>
@@ -27892,9 +27899,9 @@
       <c r="AQ209" s="11"/>
       <c r="AR209" s="11"/>
       <c r="AS209" s="11"/>
-    </row>
-    <row r="210" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A210" s="11"/>
+      <c r="AT209" s="11"/>
+    </row>
+    <row r="210" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
       <c r="D210" s="11"/>
@@ -27939,9 +27946,9 @@
       <c r="AQ210" s="11"/>
       <c r="AR210" s="11"/>
       <c r="AS210" s="11"/>
-    </row>
-    <row r="211" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A211" s="11"/>
+      <c r="AT210" s="11"/>
+    </row>
+    <row r="211" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
       <c r="D211" s="11"/>
@@ -27986,9 +27993,9 @@
       <c r="AQ211" s="11"/>
       <c r="AR211" s="11"/>
       <c r="AS211" s="11"/>
-    </row>
-    <row r="212" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A212" s="11"/>
+      <c r="AT211" s="11"/>
+    </row>
+    <row r="212" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
       <c r="D212" s="11"/>
@@ -28033,9 +28040,9 @@
       <c r="AQ212" s="11"/>
       <c r="AR212" s="11"/>
       <c r="AS212" s="11"/>
-    </row>
-    <row r="213" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A213" s="11"/>
+      <c r="AT212" s="11"/>
+    </row>
+    <row r="213" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
       <c r="D213" s="11"/>
@@ -28080,9 +28087,9 @@
       <c r="AQ213" s="11"/>
       <c r="AR213" s="11"/>
       <c r="AS213" s="11"/>
-    </row>
-    <row r="214" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A214" s="11"/>
+      <c r="AT213" s="11"/>
+    </row>
+    <row r="214" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
       <c r="D214" s="11"/>
@@ -28127,9 +28134,9 @@
       <c r="AQ214" s="11"/>
       <c r="AR214" s="11"/>
       <c r="AS214" s="11"/>
-    </row>
-    <row r="215" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A215" s="11"/>
+      <c r="AT214" s="11"/>
+    </row>
+    <row r="215" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
       <c r="D215" s="11"/>
@@ -28174,9 +28181,9 @@
       <c r="AQ215" s="11"/>
       <c r="AR215" s="11"/>
       <c r="AS215" s="11"/>
-    </row>
-    <row r="216" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A216" s="11"/>
+      <c r="AT215" s="11"/>
+    </row>
+    <row r="216" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
       <c r="D216" s="11"/>
@@ -28221,9 +28228,9 @@
       <c r="AQ216" s="11"/>
       <c r="AR216" s="11"/>
       <c r="AS216" s="11"/>
-    </row>
-    <row r="217" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A217" s="11"/>
+      <c r="AT216" s="11"/>
+    </row>
+    <row r="217" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
       <c r="D217" s="11"/>
@@ -28268,9 +28275,9 @@
       <c r="AQ217" s="11"/>
       <c r="AR217" s="11"/>
       <c r="AS217" s="11"/>
-    </row>
-    <row r="218" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A218" s="11"/>
+      <c r="AT217" s="11"/>
+    </row>
+    <row r="218" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
       <c r="D218" s="11"/>
@@ -28315,9 +28322,9 @@
       <c r="AQ218" s="11"/>
       <c r="AR218" s="11"/>
       <c r="AS218" s="11"/>
-    </row>
-    <row r="219" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A219" s="11"/>
+      <c r="AT218" s="11"/>
+    </row>
+    <row r="219" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
       <c r="D219" s="11"/>
@@ -28362,9 +28369,9 @@
       <c r="AQ219" s="11"/>
       <c r="AR219" s="11"/>
       <c r="AS219" s="11"/>
-    </row>
-    <row r="220" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A220" s="11"/>
+      <c r="AT219" s="11"/>
+    </row>
+    <row r="220" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
       <c r="D220" s="11"/>
@@ -28409,9 +28416,9 @@
       <c r="AQ220" s="11"/>
       <c r="AR220" s="11"/>
       <c r="AS220" s="11"/>
-    </row>
-    <row r="221" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A221" s="11"/>
+      <c r="AT220" s="11"/>
+    </row>
+    <row r="221" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
       <c r="D221" s="11"/>
@@ -28456,9 +28463,9 @@
       <c r="AQ221" s="11"/>
       <c r="AR221" s="11"/>
       <c r="AS221" s="11"/>
-    </row>
-    <row r="222" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A222" s="11"/>
+      <c r="AT221" s="11"/>
+    </row>
+    <row r="222" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
       <c r="D222" s="11"/>
@@ -28503,9 +28510,9 @@
       <c r="AQ222" s="11"/>
       <c r="AR222" s="11"/>
       <c r="AS222" s="11"/>
-    </row>
-    <row r="223" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A223" s="11"/>
+      <c r="AT222" s="11"/>
+    </row>
+    <row r="223" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
@@ -28550,9 +28557,9 @@
       <c r="AQ223" s="11"/>
       <c r="AR223" s="11"/>
       <c r="AS223" s="11"/>
-    </row>
-    <row r="224" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A224" s="11"/>
+      <c r="AT223" s="11"/>
+    </row>
+    <row r="224" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="11"/>
@@ -28597,9 +28604,9 @@
       <c r="AQ224" s="11"/>
       <c r="AR224" s="11"/>
       <c r="AS224" s="11"/>
-    </row>
-    <row r="225" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A225" s="11"/>
+      <c r="AT224" s="11"/>
+    </row>
+    <row r="225" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
       <c r="D225" s="11"/>
@@ -28644,9 +28651,9 @@
       <c r="AQ225" s="11"/>
       <c r="AR225" s="11"/>
       <c r="AS225" s="11"/>
-    </row>
-    <row r="226" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A226" s="11"/>
+      <c r="AT225" s="11"/>
+    </row>
+    <row r="226" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
       <c r="D226" s="11"/>
@@ -28691,9 +28698,9 @@
       <c r="AQ226" s="11"/>
       <c r="AR226" s="11"/>
       <c r="AS226" s="11"/>
-    </row>
-    <row r="227" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A227" s="11"/>
+      <c r="AT226" s="11"/>
+    </row>
+    <row r="227" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B227" s="11"/>
       <c r="C227" s="11"/>
       <c r="D227" s="11"/>
@@ -28738,9 +28745,9 @@
       <c r="AQ227" s="11"/>
       <c r="AR227" s="11"/>
       <c r="AS227" s="11"/>
-    </row>
-    <row r="228" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A228" s="11"/>
+      <c r="AT227" s="11"/>
+    </row>
+    <row r="228" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
       <c r="D228" s="11"/>
@@ -28785,9 +28792,9 @@
       <c r="AQ228" s="11"/>
       <c r="AR228" s="11"/>
       <c r="AS228" s="11"/>
-    </row>
-    <row r="229" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A229" s="11"/>
+      <c r="AT228" s="11"/>
+    </row>
+    <row r="229" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
       <c r="D229" s="11"/>
@@ -28832,9 +28839,9 @@
       <c r="AQ229" s="11"/>
       <c r="AR229" s="11"/>
       <c r="AS229" s="11"/>
-    </row>
-    <row r="230" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A230" s="11"/>
+      <c r="AT229" s="11"/>
+    </row>
+    <row r="230" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
       <c r="D230" s="11"/>
@@ -28879,9 +28886,9 @@
       <c r="AQ230" s="11"/>
       <c r="AR230" s="11"/>
       <c r="AS230" s="11"/>
-    </row>
-    <row r="231" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A231" s="11"/>
+      <c r="AT230" s="11"/>
+    </row>
+    <row r="231" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B231" s="11"/>
       <c r="C231" s="11"/>
       <c r="D231" s="11"/>
@@ -28926,9 +28933,9 @@
       <c r="AQ231" s="11"/>
       <c r="AR231" s="11"/>
       <c r="AS231" s="11"/>
-    </row>
-    <row r="232" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A232" s="11"/>
+      <c r="AT231" s="11"/>
+    </row>
+    <row r="232" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
       <c r="D232" s="11"/>
@@ -28973,9 +28980,9 @@
       <c r="AQ232" s="11"/>
       <c r="AR232" s="11"/>
       <c r="AS232" s="11"/>
-    </row>
-    <row r="233" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A233" s="11"/>
+      <c r="AT232" s="11"/>
+    </row>
+    <row r="233" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B233" s="11"/>
       <c r="C233" s="11"/>
       <c r="D233" s="11"/>
@@ -29020,9 +29027,9 @@
       <c r="AQ233" s="11"/>
       <c r="AR233" s="11"/>
       <c r="AS233" s="11"/>
-    </row>
-    <row r="234" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A234" s="11"/>
+      <c r="AT233" s="11"/>
+    </row>
+    <row r="234" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B234" s="11"/>
       <c r="C234" s="11"/>
       <c r="D234" s="11"/>
@@ -29067,9 +29074,9 @@
       <c r="AQ234" s="11"/>
       <c r="AR234" s="11"/>
       <c r="AS234" s="11"/>
-    </row>
-    <row r="235" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A235" s="11"/>
+      <c r="AT234" s="11"/>
+    </row>
+    <row r="235" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B235" s="11"/>
       <c r="C235" s="11"/>
       <c r="D235" s="11"/>
@@ -29114,9 +29121,9 @@
       <c r="AQ235" s="11"/>
       <c r="AR235" s="11"/>
       <c r="AS235" s="11"/>
-    </row>
-    <row r="236" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A236" s="11"/>
+      <c r="AT235" s="11"/>
+    </row>
+    <row r="236" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B236" s="11"/>
       <c r="C236" s="11"/>
       <c r="D236" s="11"/>
@@ -29161,9 +29168,9 @@
       <c r="AQ236" s="11"/>
       <c r="AR236" s="11"/>
       <c r="AS236" s="11"/>
-    </row>
-    <row r="237" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A237" s="11"/>
+      <c r="AT236" s="11"/>
+    </row>
+    <row r="237" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B237" s="11"/>
       <c r="C237" s="11"/>
       <c r="D237" s="11"/>
@@ -29208,9 +29215,9 @@
       <c r="AQ237" s="11"/>
       <c r="AR237" s="11"/>
       <c r="AS237" s="11"/>
-    </row>
-    <row r="238" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A238" s="11"/>
+      <c r="AT237" s="11"/>
+    </row>
+    <row r="238" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B238" s="11"/>
       <c r="C238" s="11"/>
       <c r="D238" s="11"/>
@@ -29255,9 +29262,9 @@
       <c r="AQ238" s="11"/>
       <c r="AR238" s="11"/>
       <c r="AS238" s="11"/>
-    </row>
-    <row r="239" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A239" s="11"/>
+      <c r="AT238" s="11"/>
+    </row>
+    <row r="239" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B239" s="11"/>
       <c r="C239" s="11"/>
       <c r="D239" s="11"/>
@@ -29302,9 +29309,9 @@
       <c r="AQ239" s="11"/>
       <c r="AR239" s="11"/>
       <c r="AS239" s="11"/>
-    </row>
-    <row r="240" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A240" s="11"/>
+      <c r="AT239" s="11"/>
+    </row>
+    <row r="240" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B240" s="11"/>
       <c r="C240" s="11"/>
       <c r="D240" s="11"/>
@@ -29349,9 +29356,9 @@
       <c r="AQ240" s="11"/>
       <c r="AR240" s="11"/>
       <c r="AS240" s="11"/>
-    </row>
-    <row r="241" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A241" s="11"/>
+      <c r="AT240" s="11"/>
+    </row>
+    <row r="241" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B241" s="11"/>
       <c r="C241" s="11"/>
       <c r="D241" s="11"/>
@@ -29396,9 +29403,9 @@
       <c r="AQ241" s="11"/>
       <c r="AR241" s="11"/>
       <c r="AS241" s="11"/>
-    </row>
-    <row r="242" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A242" s="11"/>
+      <c r="AT241" s="11"/>
+    </row>
+    <row r="242" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B242" s="11"/>
       <c r="C242" s="11"/>
       <c r="D242" s="11"/>
@@ -29443,9 +29450,9 @@
       <c r="AQ242" s="11"/>
       <c r="AR242" s="11"/>
       <c r="AS242" s="11"/>
-    </row>
-    <row r="243" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A243" s="11"/>
+      <c r="AT242" s="11"/>
+    </row>
+    <row r="243" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B243" s="11"/>
       <c r="C243" s="11"/>
       <c r="D243" s="11"/>
@@ -29490,9 +29497,9 @@
       <c r="AQ243" s="11"/>
       <c r="AR243" s="11"/>
       <c r="AS243" s="11"/>
-    </row>
-    <row r="244" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A244" s="11"/>
+      <c r="AT243" s="11"/>
+    </row>
+    <row r="244" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B244" s="11"/>
       <c r="C244" s="11"/>
       <c r="D244" s="11"/>
@@ -29537,9 +29544,9 @@
       <c r="AQ244" s="11"/>
       <c r="AR244" s="11"/>
       <c r="AS244" s="11"/>
-    </row>
-    <row r="245" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A245" s="11"/>
+      <c r="AT244" s="11"/>
+    </row>
+    <row r="245" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B245" s="11"/>
       <c r="C245" s="11"/>
       <c r="D245" s="11"/>
@@ -29584,9 +29591,9 @@
       <c r="AQ245" s="11"/>
       <c r="AR245" s="11"/>
       <c r="AS245" s="11"/>
-    </row>
-    <row r="246" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A246" s="11"/>
+      <c r="AT245" s="11"/>
+    </row>
+    <row r="246" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B246" s="11"/>
       <c r="C246" s="11"/>
       <c r="D246" s="11"/>
@@ -29631,9 +29638,9 @@
       <c r="AQ246" s="11"/>
       <c r="AR246" s="11"/>
       <c r="AS246" s="11"/>
-    </row>
-    <row r="247" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A247" s="11"/>
+      <c r="AT246" s="11"/>
+    </row>
+    <row r="247" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B247" s="11"/>
       <c r="C247" s="11"/>
       <c r="D247" s="11"/>
@@ -29678,9 +29685,9 @@
       <c r="AQ247" s="11"/>
       <c r="AR247" s="11"/>
       <c r="AS247" s="11"/>
-    </row>
-    <row r="248" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A248" s="11"/>
+      <c r="AT247" s="11"/>
+    </row>
+    <row r="248" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B248" s="11"/>
       <c r="C248" s="11"/>
       <c r="D248" s="11"/>
@@ -29725,9 +29732,9 @@
       <c r="AQ248" s="11"/>
       <c r="AR248" s="11"/>
       <c r="AS248" s="11"/>
-    </row>
-    <row r="249" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A249" s="11"/>
+      <c r="AT248" s="11"/>
+    </row>
+    <row r="249" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B249" s="11"/>
       <c r="C249" s="11"/>
       <c r="D249" s="11"/>
@@ -29772,9 +29779,9 @@
       <c r="AQ249" s="11"/>
       <c r="AR249" s="11"/>
       <c r="AS249" s="11"/>
-    </row>
-    <row r="250" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A250" s="11"/>
+      <c r="AT249" s="11"/>
+    </row>
+    <row r="250" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B250" s="11"/>
       <c r="C250" s="11"/>
       <c r="D250" s="11"/>
@@ -29819,9 +29826,9 @@
       <c r="AQ250" s="11"/>
       <c r="AR250" s="11"/>
       <c r="AS250" s="11"/>
-    </row>
-    <row r="251" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A251" s="11"/>
+      <c r="AT250" s="11"/>
+    </row>
+    <row r="251" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B251" s="11"/>
       <c r="C251" s="11"/>
       <c r="D251" s="11"/>
@@ -29866,9 +29873,9 @@
       <c r="AQ251" s="11"/>
       <c r="AR251" s="11"/>
       <c r="AS251" s="11"/>
-    </row>
-    <row r="252" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A252" s="11"/>
+      <c r="AT251" s="11"/>
+    </row>
+    <row r="252" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B252" s="11"/>
       <c r="C252" s="11"/>
       <c r="D252" s="11"/>
@@ -29913,9 +29920,9 @@
       <c r="AQ252" s="11"/>
       <c r="AR252" s="11"/>
       <c r="AS252" s="11"/>
-    </row>
-    <row r="253" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A253" s="11"/>
+      <c r="AT252" s="11"/>
+    </row>
+    <row r="253" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B253" s="11"/>
       <c r="C253" s="11"/>
       <c r="D253" s="11"/>
@@ -29960,9 +29967,9 @@
       <c r="AQ253" s="11"/>
       <c r="AR253" s="11"/>
       <c r="AS253" s="11"/>
-    </row>
-    <row r="254" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A254" s="11"/>
+      <c r="AT253" s="11"/>
+    </row>
+    <row r="254" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B254" s="11"/>
       <c r="C254" s="11"/>
       <c r="D254" s="11"/>
@@ -30007,9 +30014,9 @@
       <c r="AQ254" s="11"/>
       <c r="AR254" s="11"/>
       <c r="AS254" s="11"/>
-    </row>
-    <row r="255" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A255" s="11"/>
+      <c r="AT254" s="11"/>
+    </row>
+    <row r="255" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B255" s="11"/>
       <c r="C255" s="11"/>
       <c r="D255" s="11"/>
@@ -30054,9 +30061,9 @@
       <c r="AQ255" s="11"/>
       <c r="AR255" s="11"/>
       <c r="AS255" s="11"/>
-    </row>
-    <row r="256" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A256" s="11"/>
+      <c r="AT255" s="11"/>
+    </row>
+    <row r="256" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B256" s="11"/>
       <c r="C256" s="11"/>
       <c r="D256" s="11"/>
@@ -30101,9 +30108,9 @@
       <c r="AQ256" s="11"/>
       <c r="AR256" s="11"/>
       <c r="AS256" s="11"/>
-    </row>
-    <row r="257" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A257" s="11"/>
+      <c r="AT256" s="11"/>
+    </row>
+    <row r="257" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B257" s="11"/>
       <c r="C257" s="11"/>
       <c r="D257" s="11"/>
@@ -30148,9 +30155,9 @@
       <c r="AQ257" s="11"/>
       <c r="AR257" s="11"/>
       <c r="AS257" s="11"/>
-    </row>
-    <row r="258" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A258" s="11"/>
+      <c r="AT257" s="11"/>
+    </row>
+    <row r="258" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B258" s="11"/>
       <c r="C258" s="11"/>
       <c r="D258" s="11"/>
@@ -30195,9 +30202,9 @@
       <c r="AQ258" s="11"/>
       <c r="AR258" s="11"/>
       <c r="AS258" s="11"/>
-    </row>
-    <row r="259" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A259" s="11"/>
+      <c r="AT258" s="11"/>
+    </row>
+    <row r="259" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B259" s="11"/>
       <c r="C259" s="11"/>
       <c r="D259" s="11"/>
@@ -30242,9 +30249,9 @@
       <c r="AQ259" s="11"/>
       <c r="AR259" s="11"/>
       <c r="AS259" s="11"/>
-    </row>
-    <row r="260" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A260" s="11"/>
+      <c r="AT259" s="11"/>
+    </row>
+    <row r="260" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B260" s="11"/>
       <c r="C260" s="11"/>
       <c r="D260" s="11"/>
@@ -30289,9 +30296,9 @@
       <c r="AQ260" s="11"/>
       <c r="AR260" s="11"/>
       <c r="AS260" s="11"/>
-    </row>
-    <row r="261" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A261" s="11"/>
+      <c r="AT260" s="11"/>
+    </row>
+    <row r="261" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B261" s="11"/>
       <c r="C261" s="11"/>
       <c r="D261" s="11"/>
@@ -30336,9 +30343,9 @@
       <c r="AQ261" s="11"/>
       <c r="AR261" s="11"/>
       <c r="AS261" s="11"/>
-    </row>
-    <row r="262" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A262" s="11"/>
+      <c r="AT261" s="11"/>
+    </row>
+    <row r="262" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B262" s="11"/>
       <c r="C262" s="11"/>
       <c r="D262" s="11"/>
@@ -30383,9 +30390,9 @@
       <c r="AQ262" s="11"/>
       <c r="AR262" s="11"/>
       <c r="AS262" s="11"/>
-    </row>
-    <row r="263" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A263" s="11"/>
+      <c r="AT262" s="11"/>
+    </row>
+    <row r="263" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B263" s="11"/>
       <c r="C263" s="11"/>
       <c r="D263" s="11"/>
@@ -30430,9 +30437,9 @@
       <c r="AQ263" s="11"/>
       <c r="AR263" s="11"/>
       <c r="AS263" s="11"/>
-    </row>
-    <row r="264" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A264" s="11"/>
+      <c r="AT263" s="11"/>
+    </row>
+    <row r="264" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B264" s="11"/>
       <c r="C264" s="11"/>
       <c r="D264" s="11"/>
@@ -30477,9 +30484,9 @@
       <c r="AQ264" s="11"/>
       <c r="AR264" s="11"/>
       <c r="AS264" s="11"/>
-    </row>
-    <row r="265" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A265" s="11"/>
+      <c r="AT264" s="11"/>
+    </row>
+    <row r="265" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B265" s="11"/>
       <c r="C265" s="11"/>
       <c r="D265" s="11"/>
@@ -30524,9 +30531,9 @@
       <c r="AQ265" s="11"/>
       <c r="AR265" s="11"/>
       <c r="AS265" s="11"/>
-    </row>
-    <row r="266" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A266" s="11"/>
+      <c r="AT265" s="11"/>
+    </row>
+    <row r="266" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B266" s="11"/>
       <c r="C266" s="11"/>
       <c r="D266" s="11"/>
@@ -30571,9 +30578,9 @@
       <c r="AQ266" s="11"/>
       <c r="AR266" s="11"/>
       <c r="AS266" s="11"/>
-    </row>
-    <row r="267" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A267" s="11"/>
+      <c r="AT266" s="11"/>
+    </row>
+    <row r="267" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B267" s="11"/>
       <c r="C267" s="11"/>
       <c r="D267" s="11"/>
@@ -30618,9 +30625,9 @@
       <c r="AQ267" s="11"/>
       <c r="AR267" s="11"/>
       <c r="AS267" s="11"/>
-    </row>
-    <row r="268" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A268" s="11"/>
+      <c r="AT267" s="11"/>
+    </row>
+    <row r="268" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B268" s="11"/>
       <c r="C268" s="11"/>
       <c r="D268" s="11"/>
@@ -30665,9 +30672,9 @@
       <c r="AQ268" s="11"/>
       <c r="AR268" s="11"/>
       <c r="AS268" s="11"/>
-    </row>
-    <row r="269" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A269" s="11"/>
+      <c r="AT268" s="11"/>
+    </row>
+    <row r="269" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B269" s="11"/>
       <c r="C269" s="11"/>
       <c r="D269" s="11"/>
@@ -30712,9 +30719,9 @@
       <c r="AQ269" s="11"/>
       <c r="AR269" s="11"/>
       <c r="AS269" s="11"/>
-    </row>
-    <row r="270" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A270" s="11"/>
+      <c r="AT269" s="11"/>
+    </row>
+    <row r="270" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B270" s="11"/>
       <c r="C270" s="11"/>
       <c r="D270" s="11"/>
@@ -30759,9 +30766,9 @@
       <c r="AQ270" s="11"/>
       <c r="AR270" s="11"/>
       <c r="AS270" s="11"/>
-    </row>
-    <row r="271" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A271" s="11"/>
+      <c r="AT270" s="11"/>
+    </row>
+    <row r="271" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B271" s="11"/>
       <c r="C271" s="11"/>
       <c r="D271" s="11"/>
@@ -30806,9 +30813,9 @@
       <c r="AQ271" s="11"/>
       <c r="AR271" s="11"/>
       <c r="AS271" s="11"/>
-    </row>
-    <row r="272" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A272" s="11"/>
+      <c r="AT271" s="11"/>
+    </row>
+    <row r="272" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B272" s="11"/>
       <c r="C272" s="11"/>
       <c r="D272" s="11"/>
@@ -30853,9 +30860,9 @@
       <c r="AQ272" s="11"/>
       <c r="AR272" s="11"/>
       <c r="AS272" s="11"/>
-    </row>
-    <row r="273" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A273" s="11"/>
+      <c r="AT272" s="11"/>
+    </row>
+    <row r="273" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B273" s="11"/>
       <c r="C273" s="11"/>
       <c r="D273" s="11"/>
@@ -30900,9 +30907,9 @@
       <c r="AQ273" s="11"/>
       <c r="AR273" s="11"/>
       <c r="AS273" s="11"/>
-    </row>
-    <row r="274" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A274" s="11"/>
+      <c r="AT273" s="11"/>
+    </row>
+    <row r="274" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B274" s="11"/>
       <c r="C274" s="11"/>
       <c r="D274" s="11"/>
@@ -30947,9 +30954,9 @@
       <c r="AQ274" s="11"/>
       <c r="AR274" s="11"/>
       <c r="AS274" s="11"/>
-    </row>
-    <row r="275" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A275" s="11"/>
+      <c r="AT274" s="11"/>
+    </row>
+    <row r="275" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B275" s="11"/>
       <c r="C275" s="11"/>
       <c r="D275" s="11"/>
@@ -30994,9 +31001,9 @@
       <c r="AQ275" s="11"/>
       <c r="AR275" s="11"/>
       <c r="AS275" s="11"/>
-    </row>
-    <row r="276" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A276" s="11"/>
+      <c r="AT275" s="11"/>
+    </row>
+    <row r="276" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B276" s="11"/>
       <c r="C276" s="11"/>
       <c r="D276" s="11"/>
@@ -31041,9 +31048,9 @@
       <c r="AQ276" s="11"/>
       <c r="AR276" s="11"/>
       <c r="AS276" s="11"/>
-    </row>
-    <row r="277" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A277" s="11"/>
+      <c r="AT276" s="11"/>
+    </row>
+    <row r="277" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B277" s="11"/>
       <c r="C277" s="11"/>
       <c r="D277" s="11"/>
@@ -31088,9 +31095,9 @@
       <c r="AQ277" s="11"/>
       <c r="AR277" s="11"/>
       <c r="AS277" s="11"/>
-    </row>
-    <row r="278" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A278" s="11"/>
+      <c r="AT277" s="11"/>
+    </row>
+    <row r="278" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B278" s="11"/>
       <c r="C278" s="11"/>
       <c r="D278" s="11"/>
@@ -31135,9 +31142,9 @@
       <c r="AQ278" s="11"/>
       <c r="AR278" s="11"/>
       <c r="AS278" s="11"/>
-    </row>
-    <row r="279" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A279" s="11"/>
+      <c r="AT278" s="11"/>
+    </row>
+    <row r="279" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B279" s="11"/>
       <c r="C279" s="11"/>
       <c r="D279" s="11"/>
@@ -31182,9 +31189,9 @@
       <c r="AQ279" s="11"/>
       <c r="AR279" s="11"/>
       <c r="AS279" s="11"/>
-    </row>
-    <row r="280" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A280" s="11"/>
+      <c r="AT279" s="11"/>
+    </row>
+    <row r="280" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B280" s="11"/>
       <c r="C280" s="11"/>
       <c r="D280" s="11"/>
@@ -31229,9 +31236,9 @@
       <c r="AQ280" s="11"/>
       <c r="AR280" s="11"/>
       <c r="AS280" s="11"/>
-    </row>
-    <row r="281" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A281" s="11"/>
+      <c r="AT280" s="11"/>
+    </row>
+    <row r="281" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B281" s="11"/>
       <c r="C281" s="11"/>
       <c r="D281" s="11"/>
@@ -31276,9 +31283,9 @@
       <c r="AQ281" s="11"/>
       <c r="AR281" s="11"/>
       <c r="AS281" s="11"/>
-    </row>
-    <row r="282" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A282" s="11"/>
+      <c r="AT281" s="11"/>
+    </row>
+    <row r="282" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B282" s="11"/>
       <c r="C282" s="11"/>
       <c r="D282" s="11"/>
@@ -31323,9 +31330,9 @@
       <c r="AQ282" s="11"/>
       <c r="AR282" s="11"/>
       <c r="AS282" s="11"/>
-    </row>
-    <row r="283" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A283" s="11"/>
+      <c r="AT282" s="11"/>
+    </row>
+    <row r="283" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B283" s="11"/>
       <c r="C283" s="11"/>
       <c r="D283" s="11"/>
@@ -31370,9 +31377,9 @@
       <c r="AQ283" s="11"/>
       <c r="AR283" s="11"/>
       <c r="AS283" s="11"/>
-    </row>
-    <row r="284" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A284" s="11"/>
+      <c r="AT283" s="11"/>
+    </row>
+    <row r="284" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B284" s="11"/>
       <c r="C284" s="11"/>
       <c r="D284" s="11"/>
@@ -31417,9 +31424,9 @@
       <c r="AQ284" s="11"/>
       <c r="AR284" s="11"/>
       <c r="AS284" s="11"/>
-    </row>
-    <row r="285" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A285" s="11"/>
+      <c r="AT284" s="11"/>
+    </row>
+    <row r="285" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B285" s="11"/>
       <c r="C285" s="11"/>
       <c r="D285" s="11"/>
@@ -31464,9 +31471,9 @@
       <c r="AQ285" s="11"/>
       <c r="AR285" s="11"/>
       <c r="AS285" s="11"/>
-    </row>
-    <row r="286" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A286" s="11"/>
+      <c r="AT285" s="11"/>
+    </row>
+    <row r="286" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B286" s="11"/>
       <c r="C286" s="11"/>
       <c r="D286" s="11"/>
@@ -31511,9 +31518,9 @@
       <c r="AQ286" s="11"/>
       <c r="AR286" s="11"/>
       <c r="AS286" s="11"/>
-    </row>
-    <row r="287" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A287" s="11"/>
+      <c r="AT286" s="11"/>
+    </row>
+    <row r="287" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B287" s="11"/>
       <c r="C287" s="11"/>
       <c r="D287" s="11"/>
@@ -31558,9 +31565,9 @@
       <c r="AQ287" s="11"/>
       <c r="AR287" s="11"/>
       <c r="AS287" s="11"/>
-    </row>
-    <row r="288" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A288" s="11"/>
+      <c r="AT287" s="11"/>
+    </row>
+    <row r="288" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B288" s="11"/>
       <c r="C288" s="11"/>
       <c r="D288" s="11"/>
@@ -31605,9 +31612,9 @@
       <c r="AQ288" s="11"/>
       <c r="AR288" s="11"/>
       <c r="AS288" s="11"/>
-    </row>
-    <row r="289" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A289" s="11"/>
+      <c r="AT288" s="11"/>
+    </row>
+    <row r="289" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B289" s="11"/>
       <c r="C289" s="11"/>
       <c r="D289" s="11"/>
@@ -31652,9 +31659,9 @@
       <c r="AQ289" s="11"/>
       <c r="AR289" s="11"/>
       <c r="AS289" s="11"/>
-    </row>
-    <row r="290" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A290" s="11"/>
+      <c r="AT289" s="11"/>
+    </row>
+    <row r="290" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B290" s="11"/>
       <c r="C290" s="11"/>
       <c r="D290" s="11"/>
@@ -31699,9 +31706,9 @@
       <c r="AQ290" s="11"/>
       <c r="AR290" s="11"/>
       <c r="AS290" s="11"/>
-    </row>
-    <row r="291" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A291" s="11"/>
+      <c r="AT290" s="11"/>
+    </row>
+    <row r="291" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B291" s="11"/>
       <c r="C291" s="11"/>
       <c r="D291" s="11"/>
@@ -31746,9 +31753,9 @@
       <c r="AQ291" s="11"/>
       <c r="AR291" s="11"/>
       <c r="AS291" s="11"/>
-    </row>
-    <row r="292" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A292" s="11"/>
+      <c r="AT291" s="11"/>
+    </row>
+    <row r="292" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B292" s="11"/>
       <c r="C292" s="11"/>
       <c r="D292" s="11"/>
@@ -31793,9 +31800,9 @@
       <c r="AQ292" s="11"/>
       <c r="AR292" s="11"/>
       <c r="AS292" s="11"/>
-    </row>
-    <row r="293" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A293" s="11"/>
+      <c r="AT292" s="11"/>
+    </row>
+    <row r="293" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B293" s="11"/>
       <c r="C293" s="11"/>
       <c r="D293" s="11"/>
@@ -31840,9 +31847,9 @@
       <c r="AQ293" s="11"/>
       <c r="AR293" s="11"/>
       <c r="AS293" s="11"/>
-    </row>
-    <row r="294" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A294" s="11"/>
+      <c r="AT293" s="11"/>
+    </row>
+    <row r="294" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B294" s="11"/>
       <c r="C294" s="11"/>
       <c r="D294" s="11"/>
@@ -31887,9 +31894,9 @@
       <c r="AQ294" s="11"/>
       <c r="AR294" s="11"/>
       <c r="AS294" s="11"/>
-    </row>
-    <row r="295" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A295" s="11"/>
+      <c r="AT294" s="11"/>
+    </row>
+    <row r="295" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B295" s="11"/>
       <c r="C295" s="11"/>
       <c r="D295" s="11"/>
@@ -31934,9 +31941,9 @@
       <c r="AQ295" s="11"/>
       <c r="AR295" s="11"/>
       <c r="AS295" s="11"/>
-    </row>
-    <row r="296" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A296" s="11"/>
+      <c r="AT295" s="11"/>
+    </row>
+    <row r="296" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B296" s="11"/>
       <c r="C296" s="11"/>
       <c r="D296" s="11"/>
@@ -31981,9 +31988,9 @@
       <c r="AQ296" s="11"/>
       <c r="AR296" s="11"/>
       <c r="AS296" s="11"/>
-    </row>
-    <row r="297" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A297" s="11"/>
+      <c r="AT296" s="11"/>
+    </row>
+    <row r="297" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B297" s="11"/>
       <c r="C297" s="11"/>
       <c r="D297" s="11"/>
@@ -32028,9 +32035,9 @@
       <c r="AQ297" s="11"/>
       <c r="AR297" s="11"/>
       <c r="AS297" s="11"/>
-    </row>
-    <row r="298" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A298" s="11"/>
+      <c r="AT297" s="11"/>
+    </row>
+    <row r="298" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B298" s="11"/>
       <c r="C298" s="11"/>
       <c r="D298" s="11"/>
@@ -32075,9 +32082,9 @@
       <c r="AQ298" s="11"/>
       <c r="AR298" s="11"/>
       <c r="AS298" s="11"/>
-    </row>
-    <row r="299" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A299" s="11"/>
+      <c r="AT298" s="11"/>
+    </row>
+    <row r="299" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B299" s="11"/>
       <c r="C299" s="11"/>
       <c r="D299" s="11"/>
@@ -32122,9 +32129,9 @@
       <c r="AQ299" s="11"/>
       <c r="AR299" s="11"/>
       <c r="AS299" s="11"/>
-    </row>
-    <row r="300" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A300" s="11"/>
+      <c r="AT299" s="11"/>
+    </row>
+    <row r="300" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B300" s="11"/>
       <c r="C300" s="11"/>
       <c r="D300" s="11"/>
@@ -32169,9 +32176,9 @@
       <c r="AQ300" s="11"/>
       <c r="AR300" s="11"/>
       <c r="AS300" s="11"/>
-    </row>
-    <row r="301" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A301" s="11"/>
+      <c r="AT300" s="11"/>
+    </row>
+    <row r="301" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B301" s="11"/>
       <c r="C301" s="11"/>
       <c r="D301" s="11"/>
@@ -32216,9 +32223,9 @@
       <c r="AQ301" s="11"/>
       <c r="AR301" s="11"/>
       <c r="AS301" s="11"/>
-    </row>
-    <row r="302" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A302" s="11"/>
+      <c r="AT301" s="11"/>
+    </row>
+    <row r="302" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B302" s="11"/>
       <c r="C302" s="11"/>
       <c r="D302" s="11"/>
@@ -32263,9 +32270,9 @@
       <c r="AQ302" s="11"/>
       <c r="AR302" s="11"/>
       <c r="AS302" s="11"/>
-    </row>
-    <row r="303" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A303" s="11"/>
+      <c r="AT302" s="11"/>
+    </row>
+    <row r="303" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B303" s="11"/>
       <c r="C303" s="11"/>
       <c r="D303" s="11"/>
@@ -32310,9 +32317,9 @@
       <c r="AQ303" s="11"/>
       <c r="AR303" s="11"/>
       <c r="AS303" s="11"/>
-    </row>
-    <row r="304" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A304" s="11"/>
+      <c r="AT303" s="11"/>
+    </row>
+    <row r="304" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B304" s="11"/>
       <c r="C304" s="11"/>
       <c r="D304" s="11"/>
@@ -32357,9 +32364,9 @@
       <c r="AQ304" s="11"/>
       <c r="AR304" s="11"/>
       <c r="AS304" s="11"/>
-    </row>
-    <row r="305" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A305" s="11"/>
+      <c r="AT304" s="11"/>
+    </row>
+    <row r="305" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B305" s="11"/>
       <c r="C305" s="11"/>
       <c r="D305" s="11"/>
@@ -32404,9 +32411,9 @@
       <c r="AQ305" s="11"/>
       <c r="AR305" s="11"/>
       <c r="AS305" s="11"/>
-    </row>
-    <row r="306" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A306" s="11"/>
+      <c r="AT305" s="11"/>
+    </row>
+    <row r="306" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B306" s="11"/>
       <c r="C306" s="11"/>
       <c r="D306" s="11"/>
@@ -32451,9 +32458,9 @@
       <c r="AQ306" s="11"/>
       <c r="AR306" s="11"/>
       <c r="AS306" s="11"/>
-    </row>
-    <row r="307" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A307" s="11"/>
+      <c r="AT306" s="11"/>
+    </row>
+    <row r="307" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B307" s="11"/>
       <c r="C307" s="11"/>
       <c r="D307" s="11"/>
@@ -32498,9 +32505,9 @@
       <c r="AQ307" s="11"/>
       <c r="AR307" s="11"/>
       <c r="AS307" s="11"/>
-    </row>
-    <row r="308" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A308" s="11"/>
+      <c r="AT307" s="11"/>
+    </row>
+    <row r="308" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B308" s="11"/>
       <c r="C308" s="11"/>
       <c r="D308" s="11"/>
@@ -32545,9 +32552,9 @@
       <c r="AQ308" s="11"/>
       <c r="AR308" s="11"/>
       <c r="AS308" s="11"/>
-    </row>
-    <row r="309" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A309" s="11"/>
+      <c r="AT308" s="11"/>
+    </row>
+    <row r="309" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B309" s="11"/>
       <c r="C309" s="11"/>
       <c r="D309" s="11"/>
@@ -32592,9 +32599,9 @@
       <c r="AQ309" s="11"/>
       <c r="AR309" s="11"/>
       <c r="AS309" s="11"/>
-    </row>
-    <row r="310" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A310" s="11"/>
+      <c r="AT309" s="11"/>
+    </row>
+    <row r="310" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B310" s="11"/>
       <c r="C310" s="11"/>
       <c r="D310" s="11"/>
@@ -32639,9 +32646,9 @@
       <c r="AQ310" s="11"/>
       <c r="AR310" s="11"/>
       <c r="AS310" s="11"/>
-    </row>
-    <row r="311" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A311" s="11"/>
+      <c r="AT310" s="11"/>
+    </row>
+    <row r="311" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B311" s="11"/>
       <c r="C311" s="11"/>
       <c r="D311" s="11"/>
@@ -32686,9 +32693,9 @@
       <c r="AQ311" s="11"/>
       <c r="AR311" s="11"/>
       <c r="AS311" s="11"/>
-    </row>
-    <row r="312" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A312" s="11"/>
+      <c r="AT311" s="11"/>
+    </row>
+    <row r="312" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B312" s="11"/>
       <c r="C312" s="11"/>
       <c r="D312" s="11"/>
@@ -32733,9 +32740,9 @@
       <c r="AQ312" s="11"/>
       <c r="AR312" s="11"/>
       <c r="AS312" s="11"/>
-    </row>
-    <row r="313" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A313" s="11"/>
+      <c r="AT312" s="11"/>
+    </row>
+    <row r="313" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B313" s="11"/>
       <c r="C313" s="11"/>
       <c r="D313" s="11"/>
@@ -32780,9 +32787,9 @@
       <c r="AQ313" s="11"/>
       <c r="AR313" s="11"/>
       <c r="AS313" s="11"/>
-    </row>
-    <row r="314" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A314" s="11"/>
+      <c r="AT313" s="11"/>
+    </row>
+    <row r="314" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B314" s="11"/>
       <c r="C314" s="11"/>
       <c r="D314" s="11"/>
@@ -32827,9 +32834,9 @@
       <c r="AQ314" s="11"/>
       <c r="AR314" s="11"/>
       <c r="AS314" s="11"/>
-    </row>
-    <row r="315" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A315" s="11"/>
+      <c r="AT314" s="11"/>
+    </row>
+    <row r="315" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B315" s="11"/>
       <c r="C315" s="11"/>
       <c r="D315" s="11"/>
@@ -32874,9 +32881,9 @@
       <c r="AQ315" s="11"/>
       <c r="AR315" s="11"/>
       <c r="AS315" s="11"/>
-    </row>
-    <row r="316" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A316" s="11"/>
+      <c r="AT315" s="11"/>
+    </row>
+    <row r="316" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B316" s="11"/>
       <c r="C316" s="11"/>
       <c r="D316" s="11"/>
@@ -32921,9 +32928,9 @@
       <c r="AQ316" s="11"/>
       <c r="AR316" s="11"/>
       <c r="AS316" s="11"/>
-    </row>
-    <row r="317" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A317" s="11"/>
+      <c r="AT316" s="11"/>
+    </row>
+    <row r="317" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B317" s="11"/>
       <c r="C317" s="11"/>
       <c r="D317" s="11"/>
@@ -32968,9 +32975,9 @@
       <c r="AQ317" s="11"/>
       <c r="AR317" s="11"/>
       <c r="AS317" s="11"/>
-    </row>
-    <row r="318" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A318" s="11"/>
+      <c r="AT317" s="11"/>
+    </row>
+    <row r="318" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B318" s="11"/>
       <c r="C318" s="11"/>
       <c r="D318" s="11"/>
@@ -33015,9 +33022,9 @@
       <c r="AQ318" s="11"/>
       <c r="AR318" s="11"/>
       <c r="AS318" s="11"/>
-    </row>
-    <row r="319" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A319" s="11"/>
+      <c r="AT318" s="11"/>
+    </row>
+    <row r="319" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B319" s="11"/>
       <c r="C319" s="11"/>
       <c r="D319" s="11"/>
@@ -33062,9 +33069,9 @@
       <c r="AQ319" s="11"/>
       <c r="AR319" s="11"/>
       <c r="AS319" s="11"/>
-    </row>
-    <row r="320" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A320" s="11"/>
+      <c r="AT319" s="11"/>
+    </row>
+    <row r="320" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B320" s="11"/>
       <c r="C320" s="11"/>
       <c r="D320" s="11"/>
@@ -33109,9 +33116,9 @@
       <c r="AQ320" s="11"/>
       <c r="AR320" s="11"/>
       <c r="AS320" s="11"/>
-    </row>
-    <row r="321" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A321" s="11"/>
+      <c r="AT320" s="11"/>
+    </row>
+    <row r="321" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B321" s="11"/>
       <c r="C321" s="11"/>
       <c r="D321" s="11"/>
@@ -33156,9 +33163,9 @@
       <c r="AQ321" s="11"/>
       <c r="AR321" s="11"/>
       <c r="AS321" s="11"/>
-    </row>
-    <row r="322" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A322" s="11"/>
+      <c r="AT321" s="11"/>
+    </row>
+    <row r="322" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B322" s="11"/>
       <c r="C322" s="11"/>
       <c r="D322" s="11"/>
@@ -33203,9 +33210,9 @@
       <c r="AQ322" s="11"/>
       <c r="AR322" s="11"/>
       <c r="AS322" s="11"/>
-    </row>
-    <row r="323" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A323" s="11"/>
+      <c r="AT322" s="11"/>
+    </row>
+    <row r="323" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B323" s="11"/>
       <c r="C323" s="11"/>
       <c r="D323" s="11"/>
@@ -33250,9 +33257,9 @@
       <c r="AQ323" s="11"/>
       <c r="AR323" s="11"/>
       <c r="AS323" s="11"/>
-    </row>
-    <row r="324" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A324" s="11"/>
+      <c r="AT323" s="11"/>
+    </row>
+    <row r="324" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B324" s="11"/>
       <c r="C324" s="11"/>
       <c r="D324" s="11"/>
@@ -33297,9 +33304,9 @@
       <c r="AQ324" s="11"/>
       <c r="AR324" s="11"/>
       <c r="AS324" s="11"/>
-    </row>
-    <row r="325" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A325" s="11"/>
+      <c r="AT324" s="11"/>
+    </row>
+    <row r="325" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B325" s="11"/>
       <c r="C325" s="11"/>
       <c r="D325" s="11"/>
@@ -33344,9 +33351,9 @@
       <c r="AQ325" s="11"/>
       <c r="AR325" s="11"/>
       <c r="AS325" s="11"/>
-    </row>
-    <row r="326" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A326" s="11"/>
+      <c r="AT325" s="11"/>
+    </row>
+    <row r="326" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B326" s="11"/>
       <c r="C326" s="11"/>
       <c r="D326" s="11"/>
@@ -33391,9 +33398,9 @@
       <c r="AQ326" s="11"/>
       <c r="AR326" s="11"/>
       <c r="AS326" s="11"/>
-    </row>
-    <row r="327" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A327" s="11"/>
+      <c r="AT326" s="11"/>
+    </row>
+    <row r="327" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B327" s="11"/>
       <c r="C327" s="11"/>
       <c r="D327" s="11"/>
@@ -33438,9 +33445,9 @@
       <c r="AQ327" s="11"/>
       <c r="AR327" s="11"/>
       <c r="AS327" s="11"/>
-    </row>
-    <row r="328" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A328" s="11"/>
+      <c r="AT327" s="11"/>
+    </row>
+    <row r="328" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B328" s="11"/>
       <c r="C328" s="11"/>
       <c r="D328" s="11"/>
@@ -33485,9 +33492,9 @@
       <c r="AQ328" s="11"/>
       <c r="AR328" s="11"/>
       <c r="AS328" s="11"/>
-    </row>
-    <row r="329" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A329" s="11"/>
+      <c r="AT328" s="11"/>
+    </row>
+    <row r="329" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B329" s="11"/>
       <c r="C329" s="11"/>
       <c r="D329" s="11"/>
@@ -33532,9 +33539,9 @@
       <c r="AQ329" s="11"/>
       <c r="AR329" s="11"/>
       <c r="AS329" s="11"/>
-    </row>
-    <row r="330" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A330" s="11"/>
+      <c r="AT329" s="11"/>
+    </row>
+    <row r="330" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B330" s="11"/>
       <c r="C330" s="11"/>
       <c r="D330" s="11"/>
@@ -33579,9 +33586,9 @@
       <c r="AQ330" s="11"/>
       <c r="AR330" s="11"/>
       <c r="AS330" s="11"/>
-    </row>
-    <row r="331" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A331" s="11"/>
+      <c r="AT330" s="11"/>
+    </row>
+    <row r="331" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B331" s="11"/>
       <c r="C331" s="11"/>
       <c r="D331" s="11"/>
@@ -33626,9 +33633,9 @@
       <c r="AQ331" s="11"/>
       <c r="AR331" s="11"/>
       <c r="AS331" s="11"/>
-    </row>
-    <row r="332" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A332" s="11"/>
+      <c r="AT331" s="11"/>
+    </row>
+    <row r="332" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B332" s="11"/>
       <c r="C332" s="11"/>
       <c r="D332" s="11"/>
@@ -33673,9 +33680,9 @@
       <c r="AQ332" s="11"/>
       <c r="AR332" s="11"/>
       <c r="AS332" s="11"/>
-    </row>
-    <row r="333" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A333" s="11"/>
+      <c r="AT332" s="11"/>
+    </row>
+    <row r="333" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B333" s="11"/>
       <c r="C333" s="11"/>
       <c r="D333" s="11"/>
@@ -33720,9 +33727,9 @@
       <c r="AQ333" s="11"/>
       <c r="AR333" s="11"/>
       <c r="AS333" s="11"/>
-    </row>
-    <row r="334" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A334" s="11"/>
+      <c r="AT333" s="11"/>
+    </row>
+    <row r="334" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B334" s="11"/>
       <c r="C334" s="11"/>
       <c r="D334" s="11"/>
@@ -33767,9 +33774,9 @@
       <c r="AQ334" s="11"/>
       <c r="AR334" s="11"/>
       <c r="AS334" s="11"/>
-    </row>
-    <row r="335" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A335" s="11"/>
+      <c r="AT334" s="11"/>
+    </row>
+    <row r="335" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B335" s="11"/>
       <c r="C335" s="11"/>
       <c r="D335" s="11"/>
@@ -33814,9 +33821,9 @@
       <c r="AQ335" s="11"/>
       <c r="AR335" s="11"/>
       <c r="AS335" s="11"/>
-    </row>
-    <row r="336" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A336" s="11"/>
+      <c r="AT335" s="11"/>
+    </row>
+    <row r="336" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B336" s="11"/>
       <c r="C336" s="11"/>
       <c r="D336" s="11"/>
@@ -33861,9 +33868,9 @@
       <c r="AQ336" s="11"/>
       <c r="AR336" s="11"/>
       <c r="AS336" s="11"/>
-    </row>
-    <row r="337" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A337" s="11"/>
+      <c r="AT336" s="11"/>
+    </row>
+    <row r="337" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B337" s="11"/>
       <c r="C337" s="11"/>
       <c r="D337" s="11"/>
@@ -33908,9 +33915,9 @@
       <c r="AQ337" s="11"/>
       <c r="AR337" s="11"/>
       <c r="AS337" s="11"/>
-    </row>
-    <row r="338" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A338" s="11"/>
+      <c r="AT337" s="11"/>
+    </row>
+    <row r="338" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B338" s="11"/>
       <c r="C338" s="11"/>
       <c r="D338" s="11"/>
@@ -33955,9 +33962,9 @@
       <c r="AQ338" s="11"/>
       <c r="AR338" s="11"/>
       <c r="AS338" s="11"/>
-    </row>
-    <row r="339" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A339" s="11"/>
+      <c r="AT338" s="11"/>
+    </row>
+    <row r="339" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B339" s="11"/>
       <c r="C339" s="11"/>
       <c r="D339" s="11"/>
@@ -34002,9 +34009,9 @@
       <c r="AQ339" s="11"/>
       <c r="AR339" s="11"/>
       <c r="AS339" s="11"/>
-    </row>
-    <row r="340" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A340" s="11"/>
+      <c r="AT339" s="11"/>
+    </row>
+    <row r="340" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B340" s="11"/>
       <c r="C340" s="11"/>
       <c r="D340" s="11"/>
@@ -34049,9 +34056,9 @@
       <c r="AQ340" s="11"/>
       <c r="AR340" s="11"/>
       <c r="AS340" s="11"/>
-    </row>
-    <row r="341" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A341" s="11"/>
+      <c r="AT340" s="11"/>
+    </row>
+    <row r="341" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B341" s="11"/>
       <c r="C341" s="11"/>
       <c r="D341" s="11"/>
@@ -34096,9 +34103,9 @@
       <c r="AQ341" s="11"/>
       <c r="AR341" s="11"/>
       <c r="AS341" s="11"/>
-    </row>
-    <row r="342" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A342" s="11"/>
+      <c r="AT341" s="11"/>
+    </row>
+    <row r="342" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B342" s="11"/>
       <c r="C342" s="11"/>
       <c r="D342" s="11"/>
@@ -34143,9 +34150,9 @@
       <c r="AQ342" s="11"/>
       <c r="AR342" s="11"/>
       <c r="AS342" s="11"/>
-    </row>
-    <row r="343" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A343" s="11"/>
+      <c r="AT342" s="11"/>
+    </row>
+    <row r="343" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B343" s="11"/>
       <c r="C343" s="11"/>
       <c r="D343" s="11"/>
@@ -34190,9 +34197,9 @@
       <c r="AQ343" s="11"/>
       <c r="AR343" s="11"/>
       <c r="AS343" s="11"/>
-    </row>
-    <row r="344" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A344" s="11"/>
+      <c r="AT343" s="11"/>
+    </row>
+    <row r="344" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B344" s="11"/>
       <c r="C344" s="11"/>
       <c r="D344" s="11"/>
@@ -34237,9 +34244,9 @@
       <c r="AQ344" s="11"/>
       <c r="AR344" s="11"/>
       <c r="AS344" s="11"/>
-    </row>
-    <row r="345" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A345" s="11"/>
+      <c r="AT344" s="11"/>
+    </row>
+    <row r="345" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B345" s="11"/>
       <c r="C345" s="11"/>
       <c r="D345" s="11"/>
@@ -34284,9 +34291,9 @@
       <c r="AQ345" s="11"/>
       <c r="AR345" s="11"/>
       <c r="AS345" s="11"/>
-    </row>
-    <row r="346" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A346" s="11"/>
+      <c r="AT345" s="11"/>
+    </row>
+    <row r="346" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B346" s="11"/>
       <c r="C346" s="11"/>
       <c r="D346" s="11"/>
@@ -34331,9 +34338,9 @@
       <c r="AQ346" s="11"/>
       <c r="AR346" s="11"/>
       <c r="AS346" s="11"/>
-    </row>
-    <row r="347" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A347" s="11"/>
+      <c r="AT346" s="11"/>
+    </row>
+    <row r="347" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B347" s="11"/>
       <c r="C347" s="11"/>
       <c r="D347" s="11"/>
@@ -34378,9 +34385,9 @@
       <c r="AQ347" s="11"/>
       <c r="AR347" s="11"/>
       <c r="AS347" s="11"/>
-    </row>
-    <row r="348" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A348" s="11"/>
+      <c r="AT347" s="11"/>
+    </row>
+    <row r="348" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B348" s="11"/>
       <c r="C348" s="11"/>
       <c r="D348" s="11"/>
@@ -34425,9 +34432,9 @@
       <c r="AQ348" s="11"/>
       <c r="AR348" s="11"/>
       <c r="AS348" s="11"/>
-    </row>
-    <row r="349" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A349" s="11"/>
+      <c r="AT348" s="11"/>
+    </row>
+    <row r="349" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B349" s="11"/>
       <c r="C349" s="11"/>
       <c r="D349" s="11"/>
@@ -34472,9 +34479,9 @@
       <c r="AQ349" s="11"/>
       <c r="AR349" s="11"/>
       <c r="AS349" s="11"/>
-    </row>
-    <row r="350" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A350" s="11"/>
+      <c r="AT349" s="11"/>
+    </row>
+    <row r="350" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B350" s="11"/>
       <c r="C350" s="11"/>
       <c r="D350" s="11"/>
@@ -34519,9 +34526,9 @@
       <c r="AQ350" s="11"/>
       <c r="AR350" s="11"/>
       <c r="AS350" s="11"/>
-    </row>
-    <row r="351" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A351" s="11"/>
+      <c r="AT350" s="11"/>
+    </row>
+    <row r="351" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B351" s="11"/>
       <c r="C351" s="11"/>
       <c r="D351" s="11"/>
@@ -34566,9 +34573,9 @@
       <c r="AQ351" s="11"/>
       <c r="AR351" s="11"/>
       <c r="AS351" s="11"/>
-    </row>
-    <row r="352" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A352" s="11"/>
+      <c r="AT351" s="11"/>
+    </row>
+    <row r="352" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B352" s="11"/>
       <c r="C352" s="11"/>
       <c r="D352" s="11"/>
@@ -34613,9 +34620,9 @@
       <c r="AQ352" s="11"/>
       <c r="AR352" s="11"/>
       <c r="AS352" s="11"/>
-    </row>
-    <row r="353" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A353" s="11"/>
+      <c r="AT352" s="11"/>
+    </row>
+    <row r="353" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B353" s="11"/>
       <c r="C353" s="11"/>
       <c r="D353" s="11"/>
@@ -34660,9 +34667,9 @@
       <c r="AQ353" s="11"/>
       <c r="AR353" s="11"/>
       <c r="AS353" s="11"/>
-    </row>
-    <row r="354" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A354" s="11"/>
+      <c r="AT353" s="11"/>
+    </row>
+    <row r="354" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B354" s="11"/>
       <c r="C354" s="11"/>
       <c r="D354" s="11"/>
@@ -34707,9 +34714,9 @@
       <c r="AQ354" s="11"/>
       <c r="AR354" s="11"/>
       <c r="AS354" s="11"/>
-    </row>
-    <row r="355" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A355" s="11"/>
+      <c r="AT354" s="11"/>
+    </row>
+    <row r="355" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B355" s="11"/>
       <c r="C355" s="11"/>
       <c r="D355" s="11"/>
@@ -34754,9 +34761,9 @@
       <c r="AQ355" s="11"/>
       <c r="AR355" s="11"/>
       <c r="AS355" s="11"/>
-    </row>
-    <row r="356" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A356" s="11"/>
+      <c r="AT355" s="11"/>
+    </row>
+    <row r="356" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B356" s="11"/>
       <c r="C356" s="11"/>
       <c r="D356" s="11"/>
@@ -34801,9 +34808,9 @@
       <c r="AQ356" s="11"/>
       <c r="AR356" s="11"/>
       <c r="AS356" s="11"/>
-    </row>
-    <row r="357" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A357" s="11"/>
+      <c r="AT356" s="11"/>
+    </row>
+    <row r="357" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B357" s="11"/>
       <c r="C357" s="11"/>
       <c r="D357" s="11"/>
@@ -34848,9 +34855,9 @@
       <c r="AQ357" s="11"/>
       <c r="AR357" s="11"/>
       <c r="AS357" s="11"/>
-    </row>
-    <row r="358" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A358" s="11"/>
+      <c r="AT357" s="11"/>
+    </row>
+    <row r="358" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B358" s="11"/>
       <c r="C358" s="11"/>
       <c r="D358" s="11"/>
@@ -34895,9 +34902,9 @@
       <c r="AQ358" s="11"/>
       <c r="AR358" s="11"/>
       <c r="AS358" s="11"/>
-    </row>
-    <row r="359" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A359" s="11"/>
+      <c r="AT358" s="11"/>
+    </row>
+    <row r="359" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B359" s="11"/>
       <c r="C359" s="11"/>
       <c r="D359" s="11"/>
@@ -34942,9 +34949,9 @@
       <c r="AQ359" s="11"/>
       <c r="AR359" s="11"/>
       <c r="AS359" s="11"/>
-    </row>
-    <row r="360" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A360" s="11"/>
+      <c r="AT359" s="11"/>
+    </row>
+    <row r="360" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B360" s="11"/>
       <c r="C360" s="11"/>
       <c r="D360" s="11"/>
@@ -34989,9 +34996,9 @@
       <c r="AQ360" s="11"/>
       <c r="AR360" s="11"/>
       <c r="AS360" s="11"/>
-    </row>
-    <row r="361" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A361" s="11"/>
+      <c r="AT360" s="11"/>
+    </row>
+    <row r="361" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B361" s="11"/>
       <c r="C361" s="11"/>
       <c r="D361" s="11"/>
@@ -35036,9 +35043,9 @@
       <c r="AQ361" s="11"/>
       <c r="AR361" s="11"/>
       <c r="AS361" s="11"/>
-    </row>
-    <row r="362" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A362" s="11"/>
+      <c r="AT361" s="11"/>
+    </row>
+    <row r="362" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B362" s="11"/>
       <c r="C362" s="11"/>
       <c r="D362" s="11"/>
@@ -35083,9 +35090,9 @@
       <c r="AQ362" s="11"/>
       <c r="AR362" s="11"/>
       <c r="AS362" s="11"/>
-    </row>
-    <row r="363" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A363" s="11"/>
+      <c r="AT362" s="11"/>
+    </row>
+    <row r="363" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B363" s="11"/>
       <c r="C363" s="11"/>
       <c r="D363" s="11"/>
@@ -35130,9 +35137,9 @@
       <c r="AQ363" s="11"/>
       <c r="AR363" s="11"/>
       <c r="AS363" s="11"/>
-    </row>
-    <row r="364" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A364" s="11"/>
+      <c r="AT363" s="11"/>
+    </row>
+    <row r="364" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B364" s="11"/>
       <c r="C364" s="11"/>
       <c r="D364" s="11"/>
@@ -35177,9 +35184,9 @@
       <c r="AQ364" s="11"/>
       <c r="AR364" s="11"/>
       <c r="AS364" s="11"/>
-    </row>
-    <row r="365" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A365" s="11"/>
+      <c r="AT364" s="11"/>
+    </row>
+    <row r="365" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B365" s="11"/>
       <c r="C365" s="11"/>
       <c r="D365" s="11"/>
@@ -35224,9 +35231,9 @@
       <c r="AQ365" s="11"/>
       <c r="AR365" s="11"/>
       <c r="AS365" s="11"/>
-    </row>
-    <row r="366" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A366" s="11"/>
+      <c r="AT365" s="11"/>
+    </row>
+    <row r="366" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B366" s="11"/>
       <c r="C366" s="11"/>
       <c r="D366" s="11"/>
@@ -35271,9 +35278,9 @@
       <c r="AQ366" s="11"/>
       <c r="AR366" s="11"/>
       <c r="AS366" s="11"/>
-    </row>
-    <row r="367" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A367" s="11"/>
+      <c r="AT366" s="11"/>
+    </row>
+    <row r="367" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B367" s="11"/>
       <c r="C367" s="11"/>
       <c r="D367" s="11"/>
@@ -35318,9 +35325,9 @@
       <c r="AQ367" s="11"/>
       <c r="AR367" s="11"/>
       <c r="AS367" s="11"/>
-    </row>
-    <row r="368" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A368" s="11"/>
+      <c r="AT367" s="11"/>
+    </row>
+    <row r="368" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B368" s="11"/>
       <c r="C368" s="11"/>
       <c r="D368" s="11"/>
@@ -35365,9 +35372,9 @@
       <c r="AQ368" s="11"/>
       <c r="AR368" s="11"/>
       <c r="AS368" s="11"/>
-    </row>
-    <row r="369" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A369" s="11"/>
+      <c r="AT368" s="11"/>
+    </row>
+    <row r="369" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B369" s="11"/>
       <c r="C369" s="11"/>
       <c r="D369" s="11"/>
@@ -35412,9 +35419,9 @@
       <c r="AQ369" s="11"/>
       <c r="AR369" s="11"/>
       <c r="AS369" s="11"/>
-    </row>
-    <row r="370" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A370" s="11"/>
+      <c r="AT369" s="11"/>
+    </row>
+    <row r="370" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B370" s="11"/>
       <c r="C370" s="11"/>
       <c r="D370" s="11"/>
@@ -35459,9 +35466,9 @@
       <c r="AQ370" s="11"/>
       <c r="AR370" s="11"/>
       <c r="AS370" s="11"/>
-    </row>
-    <row r="371" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A371" s="11"/>
+      <c r="AT370" s="11"/>
+    </row>
+    <row r="371" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B371" s="11"/>
       <c r="C371" s="11"/>
       <c r="D371" s="11"/>
@@ -35506,9 +35513,9 @@
       <c r="AQ371" s="11"/>
       <c r="AR371" s="11"/>
       <c r="AS371" s="11"/>
-    </row>
-    <row r="372" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A372" s="11"/>
+      <c r="AT371" s="11"/>
+    </row>
+    <row r="372" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B372" s="11"/>
       <c r="C372" s="11"/>
       <c r="D372" s="11"/>
@@ -35553,9 +35560,9 @@
       <c r="AQ372" s="11"/>
       <c r="AR372" s="11"/>
       <c r="AS372" s="11"/>
-    </row>
-    <row r="373" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A373" s="11"/>
+      <c r="AT372" s="11"/>
+    </row>
+    <row r="373" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B373" s="11"/>
       <c r="C373" s="11"/>
       <c r="D373" s="11"/>
@@ -35600,9 +35607,9 @@
       <c r="AQ373" s="11"/>
       <c r="AR373" s="11"/>
       <c r="AS373" s="11"/>
-    </row>
-    <row r="374" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A374" s="11"/>
+      <c r="AT373" s="11"/>
+    </row>
+    <row r="374" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B374" s="11"/>
       <c r="C374" s="11"/>
       <c r="D374" s="11"/>
@@ -35647,9 +35654,9 @@
       <c r="AQ374" s="11"/>
       <c r="AR374" s="11"/>
       <c r="AS374" s="11"/>
-    </row>
-    <row r="375" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A375" s="11"/>
+      <c r="AT374" s="11"/>
+    </row>
+    <row r="375" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B375" s="11"/>
       <c r="C375" s="11"/>
       <c r="D375" s="11"/>
@@ -35694,9 +35701,9 @@
       <c r="AQ375" s="11"/>
       <c r="AR375" s="11"/>
       <c r="AS375" s="11"/>
-    </row>
-    <row r="376" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A376" s="11"/>
+      <c r="AT375" s="11"/>
+    </row>
+    <row r="376" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B376" s="11"/>
       <c r="C376" s="11"/>
       <c r="D376" s="11"/>
@@ -35741,9 +35748,9 @@
       <c r="AQ376" s="11"/>
       <c r="AR376" s="11"/>
       <c r="AS376" s="11"/>
-    </row>
-    <row r="377" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A377" s="11"/>
+      <c r="AT376" s="11"/>
+    </row>
+    <row r="377" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B377" s="11"/>
       <c r="C377" s="11"/>
       <c r="D377" s="11"/>
@@ -35788,9 +35795,9 @@
       <c r="AQ377" s="11"/>
       <c r="AR377" s="11"/>
       <c r="AS377" s="11"/>
-    </row>
-    <row r="378" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A378" s="11"/>
+      <c r="AT377" s="11"/>
+    </row>
+    <row r="378" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B378" s="11"/>
       <c r="C378" s="11"/>
       <c r="D378" s="11"/>
@@ -35835,9 +35842,9 @@
       <c r="AQ378" s="11"/>
       <c r="AR378" s="11"/>
       <c r="AS378" s="11"/>
-    </row>
-    <row r="379" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A379" s="11"/>
+      <c r="AT378" s="11"/>
+    </row>
+    <row r="379" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B379" s="11"/>
       <c r="C379" s="11"/>
       <c r="D379" s="11"/>
@@ -35882,9 +35889,9 @@
       <c r="AQ379" s="11"/>
       <c r="AR379" s="11"/>
       <c r="AS379" s="11"/>
-    </row>
-    <row r="380" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A380" s="11"/>
+      <c r="AT379" s="11"/>
+    </row>
+    <row r="380" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B380" s="11"/>
       <c r="C380" s="11"/>
       <c r="D380" s="11"/>
@@ -35929,9 +35936,9 @@
       <c r="AQ380" s="11"/>
       <c r="AR380" s="11"/>
       <c r="AS380" s="11"/>
-    </row>
-    <row r="381" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A381" s="11"/>
+      <c r="AT380" s="11"/>
+    </row>
+    <row r="381" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B381" s="11"/>
       <c r="C381" s="11"/>
       <c r="D381" s="11"/>
@@ -35976,9 +35983,9 @@
       <c r="AQ381" s="11"/>
       <c r="AR381" s="11"/>
       <c r="AS381" s="11"/>
-    </row>
-    <row r="382" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A382" s="11"/>
+      <c r="AT381" s="11"/>
+    </row>
+    <row r="382" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B382" s="11"/>
       <c r="C382" s="11"/>
       <c r="D382" s="11"/>
@@ -36023,9 +36030,9 @@
       <c r="AQ382" s="11"/>
       <c r="AR382" s="11"/>
       <c r="AS382" s="11"/>
-    </row>
-    <row r="383" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A383" s="11"/>
+      <c r="AT382" s="11"/>
+    </row>
+    <row r="383" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B383" s="11"/>
       <c r="C383" s="11"/>
       <c r="D383" s="11"/>
@@ -36070,9 +36077,9 @@
       <c r="AQ383" s="11"/>
       <c r="AR383" s="11"/>
       <c r="AS383" s="11"/>
-    </row>
-    <row r="384" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A384" s="11"/>
+      <c r="AT383" s="11"/>
+    </row>
+    <row r="384" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B384" s="11"/>
       <c r="C384" s="11"/>
       <c r="D384" s="11"/>
@@ -36117,9 +36124,9 @@
       <c r="AQ384" s="11"/>
       <c r="AR384" s="11"/>
       <c r="AS384" s="11"/>
-    </row>
-    <row r="385" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A385" s="11"/>
+      <c r="AT384" s="11"/>
+    </row>
+    <row r="385" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B385" s="11"/>
       <c r="C385" s="11"/>
       <c r="D385" s="11"/>
@@ -36164,9 +36171,9 @@
       <c r="AQ385" s="11"/>
       <c r="AR385" s="11"/>
       <c r="AS385" s="11"/>
-    </row>
-    <row r="386" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A386" s="11"/>
+      <c r="AT385" s="11"/>
+    </row>
+    <row r="386" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B386" s="11"/>
       <c r="C386" s="11"/>
       <c r="D386" s="11"/>
@@ -36211,9 +36218,9 @@
       <c r="AQ386" s="11"/>
       <c r="AR386" s="11"/>
       <c r="AS386" s="11"/>
-    </row>
-    <row r="387" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A387" s="11"/>
+      <c r="AT386" s="11"/>
+    </row>
+    <row r="387" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B387" s="11"/>
       <c r="C387" s="11"/>
       <c r="D387" s="11"/>
@@ -36258,9 +36265,9 @@
       <c r="AQ387" s="11"/>
       <c r="AR387" s="11"/>
       <c r="AS387" s="11"/>
-    </row>
-    <row r="388" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A388" s="11"/>
+      <c r="AT387" s="11"/>
+    </row>
+    <row r="388" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B388" s="11"/>
       <c r="C388" s="11"/>
       <c r="D388" s="11"/>
@@ -36305,9 +36312,9 @@
       <c r="AQ388" s="11"/>
       <c r="AR388" s="11"/>
       <c r="AS388" s="11"/>
-    </row>
-    <row r="389" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A389" s="11"/>
+      <c r="AT388" s="11"/>
+    </row>
+    <row r="389" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B389" s="11"/>
       <c r="C389" s="11"/>
       <c r="D389" s="11"/>
@@ -36352,9 +36359,9 @@
       <c r="AQ389" s="11"/>
       <c r="AR389" s="11"/>
       <c r="AS389" s="11"/>
-    </row>
-    <row r="390" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A390" s="11"/>
+      <c r="AT389" s="11"/>
+    </row>
+    <row r="390" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B390" s="11"/>
       <c r="C390" s="11"/>
       <c r="D390" s="11"/>
@@ -36399,9 +36406,9 @@
       <c r="AQ390" s="11"/>
       <c r="AR390" s="11"/>
       <c r="AS390" s="11"/>
-    </row>
-    <row r="391" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A391" s="11"/>
+      <c r="AT390" s="11"/>
+    </row>
+    <row r="391" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B391" s="11"/>
       <c r="C391" s="11"/>
       <c r="D391" s="11"/>
@@ -36446,9 +36453,9 @@
       <c r="AQ391" s="11"/>
       <c r="AR391" s="11"/>
       <c r="AS391" s="11"/>
-    </row>
-    <row r="392" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A392" s="11"/>
+      <c r="AT391" s="11"/>
+    </row>
+    <row r="392" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B392" s="11"/>
       <c r="C392" s="11"/>
       <c r="D392" s="11"/>
@@ -36493,9 +36500,9 @@
       <c r="AQ392" s="11"/>
       <c r="AR392" s="11"/>
       <c r="AS392" s="11"/>
-    </row>
-    <row r="393" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A393" s="11"/>
+      <c r="AT392" s="11"/>
+    </row>
+    <row r="393" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B393" s="11"/>
       <c r="C393" s="11"/>
       <c r="D393" s="11"/>
@@ -36540,9 +36547,9 @@
       <c r="AQ393" s="11"/>
       <c r="AR393" s="11"/>
       <c r="AS393" s="11"/>
-    </row>
-    <row r="394" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A394" s="11"/>
+      <c r="AT393" s="11"/>
+    </row>
+    <row r="394" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B394" s="11"/>
       <c r="C394" s="11"/>
       <c r="D394" s="11"/>
@@ -36587,9 +36594,9 @@
       <c r="AQ394" s="11"/>
       <c r="AR394" s="11"/>
       <c r="AS394" s="11"/>
-    </row>
-    <row r="395" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A395" s="11"/>
+      <c r="AT394" s="11"/>
+    </row>
+    <row r="395" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B395" s="11"/>
       <c r="C395" s="11"/>
       <c r="D395" s="11"/>
@@ -36634,9 +36641,9 @@
       <c r="AQ395" s="11"/>
       <c r="AR395" s="11"/>
       <c r="AS395" s="11"/>
-    </row>
-    <row r="396" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A396" s="11"/>
+      <c r="AT395" s="11"/>
+    </row>
+    <row r="396" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B396" s="11"/>
       <c r="C396" s="11"/>
       <c r="D396" s="11"/>
@@ -36681,9 +36688,9 @@
       <c r="AQ396" s="11"/>
       <c r="AR396" s="11"/>
       <c r="AS396" s="11"/>
-    </row>
-    <row r="397" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A397" s="11"/>
+      <c r="AT396" s="11"/>
+    </row>
+    <row r="397" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B397" s="11"/>
       <c r="C397" s="11"/>
       <c r="D397" s="11"/>
@@ -36728,9 +36735,9 @@
       <c r="AQ397" s="11"/>
       <c r="AR397" s="11"/>
       <c r="AS397" s="11"/>
-    </row>
-    <row r="398" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A398" s="11"/>
+      <c r="AT397" s="11"/>
+    </row>
+    <row r="398" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B398" s="11"/>
       <c r="C398" s="11"/>
       <c r="D398" s="11"/>
@@ -36775,9 +36782,9 @@
       <c r="AQ398" s="11"/>
       <c r="AR398" s="11"/>
       <c r="AS398" s="11"/>
-    </row>
-    <row r="399" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A399" s="11"/>
+      <c r="AT398" s="11"/>
+    </row>
+    <row r="399" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B399" s="11"/>
       <c r="C399" s="11"/>
       <c r="D399" s="11"/>
@@ -36822,9 +36829,9 @@
       <c r="AQ399" s="11"/>
       <c r="AR399" s="11"/>
       <c r="AS399" s="11"/>
-    </row>
-    <row r="400" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A400" s="11"/>
+      <c r="AT399" s="11"/>
+    </row>
+    <row r="400" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B400" s="11"/>
       <c r="C400" s="11"/>
       <c r="D400" s="11"/>
@@ -36869,9 +36876,9 @@
       <c r="AQ400" s="11"/>
       <c r="AR400" s="11"/>
       <c r="AS400" s="11"/>
-    </row>
-    <row r="401" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A401" s="11"/>
+      <c r="AT400" s="11"/>
+    </row>
+    <row r="401" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B401" s="11"/>
       <c r="C401" s="11"/>
       <c r="D401" s="11"/>
@@ -36916,9 +36923,9 @@
       <c r="AQ401" s="11"/>
       <c r="AR401" s="11"/>
       <c r="AS401" s="11"/>
-    </row>
-    <row r="402" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A402" s="11"/>
+      <c r="AT401" s="11"/>
+    </row>
+    <row r="402" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B402" s="11"/>
       <c r="C402" s="11"/>
       <c r="D402" s="11"/>
@@ -36963,9 +36970,9 @@
       <c r="AQ402" s="11"/>
       <c r="AR402" s="11"/>
       <c r="AS402" s="11"/>
-    </row>
-    <row r="403" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A403" s="11"/>
+      <c r="AT402" s="11"/>
+    </row>
+    <row r="403" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B403" s="11"/>
       <c r="C403" s="11"/>
       <c r="D403" s="11"/>
@@ -37010,9 +37017,9 @@
       <c r="AQ403" s="11"/>
       <c r="AR403" s="11"/>
       <c r="AS403" s="11"/>
-    </row>
-    <row r="404" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A404" s="11"/>
+      <c r="AT403" s="11"/>
+    </row>
+    <row r="404" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B404" s="11"/>
       <c r="C404" s="11"/>
       <c r="D404" s="11"/>
@@ -37057,9 +37064,9 @@
       <c r="AQ404" s="11"/>
       <c r="AR404" s="11"/>
       <c r="AS404" s="11"/>
-    </row>
-    <row r="405" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A405" s="11"/>
+      <c r="AT404" s="11"/>
+    </row>
+    <row r="405" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B405" s="11"/>
       <c r="C405" s="11"/>
       <c r="D405" s="11"/>
@@ -37104,9 +37111,9 @@
       <c r="AQ405" s="11"/>
       <c r="AR405" s="11"/>
       <c r="AS405" s="11"/>
-    </row>
-    <row r="406" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A406" s="11"/>
+      <c r="AT405" s="11"/>
+    </row>
+    <row r="406" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B406" s="11"/>
       <c r="C406" s="11"/>
       <c r="D406" s="11"/>
@@ -37151,9 +37158,9 @@
       <c r="AQ406" s="11"/>
       <c r="AR406" s="11"/>
       <c r="AS406" s="11"/>
-    </row>
-    <row r="407" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A407" s="11"/>
+      <c r="AT406" s="11"/>
+    </row>
+    <row r="407" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B407" s="11"/>
       <c r="C407" s="11"/>
       <c r="D407" s="11"/>
@@ -37198,9 +37205,9 @@
       <c r="AQ407" s="11"/>
       <c r="AR407" s="11"/>
       <c r="AS407" s="11"/>
-    </row>
-    <row r="408" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A408" s="11"/>
+      <c r="AT407" s="11"/>
+    </row>
+    <row r="408" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B408" s="11"/>
       <c r="C408" s="11"/>
       <c r="D408" s="11"/>
@@ -37245,9 +37252,9 @@
       <c r="AQ408" s="11"/>
       <c r="AR408" s="11"/>
       <c r="AS408" s="11"/>
-    </row>
-    <row r="409" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A409" s="11"/>
+      <c r="AT408" s="11"/>
+    </row>
+    <row r="409" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B409" s="11"/>
       <c r="C409" s="11"/>
       <c r="D409" s="11"/>
@@ -37292,9 +37299,9 @@
       <c r="AQ409" s="11"/>
       <c r="AR409" s="11"/>
       <c r="AS409" s="11"/>
-    </row>
-    <row r="410" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A410" s="11"/>
+      <c r="AT409" s="11"/>
+    </row>
+    <row r="410" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B410" s="11"/>
       <c r="C410" s="11"/>
       <c r="D410" s="11"/>
@@ -37339,9 +37346,9 @@
       <c r="AQ410" s="11"/>
       <c r="AR410" s="11"/>
       <c r="AS410" s="11"/>
-    </row>
-    <row r="411" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A411" s="11"/>
+      <c r="AT410" s="11"/>
+    </row>
+    <row r="411" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B411" s="11"/>
       <c r="C411" s="11"/>
       <c r="D411" s="11"/>
@@ -37386,9 +37393,9 @@
       <c r="AQ411" s="11"/>
       <c r="AR411" s="11"/>
       <c r="AS411" s="11"/>
-    </row>
-    <row r="412" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A412" s="11"/>
+      <c r="AT411" s="11"/>
+    </row>
+    <row r="412" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B412" s="11"/>
       <c r="C412" s="11"/>
       <c r="D412" s="11"/>
@@ -37433,9 +37440,9 @@
       <c r="AQ412" s="11"/>
       <c r="AR412" s="11"/>
       <c r="AS412" s="11"/>
-    </row>
-    <row r="413" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A413" s="11"/>
+      <c r="AT412" s="11"/>
+    </row>
+    <row r="413" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B413" s="11"/>
       <c r="C413" s="11"/>
       <c r="D413" s="11"/>
@@ -37480,9 +37487,9 @@
       <c r="AQ413" s="11"/>
       <c r="AR413" s="11"/>
       <c r="AS413" s="11"/>
-    </row>
-    <row r="414" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A414" s="11"/>
+      <c r="AT413" s="11"/>
+    </row>
+    <row r="414" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B414" s="11"/>
       <c r="C414" s="11"/>
       <c r="D414" s="11"/>
@@ -37527,9 +37534,9 @@
       <c r="AQ414" s="11"/>
       <c r="AR414" s="11"/>
       <c r="AS414" s="11"/>
-    </row>
-    <row r="415" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A415" s="11"/>
+      <c r="AT414" s="11"/>
+    </row>
+    <row r="415" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B415" s="11"/>
       <c r="C415" s="11"/>
       <c r="D415" s="11"/>
@@ -37574,9 +37581,9 @@
       <c r="AQ415" s="11"/>
       <c r="AR415" s="11"/>
       <c r="AS415" s="11"/>
-    </row>
-    <row r="416" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A416" s="11"/>
+      <c r="AT415" s="11"/>
+    </row>
+    <row r="416" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B416" s="11"/>
       <c r="C416" s="11"/>
       <c r="D416" s="11"/>
@@ -37621,9 +37628,9 @@
       <c r="AQ416" s="11"/>
       <c r="AR416" s="11"/>
       <c r="AS416" s="11"/>
-    </row>
-    <row r="417" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A417" s="11"/>
+      <c r="AT416" s="11"/>
+    </row>
+    <row r="417" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B417" s="11"/>
       <c r="C417" s="11"/>
       <c r="D417" s="11"/>
@@ -37668,9 +37675,9 @@
       <c r="AQ417" s="11"/>
       <c r="AR417" s="11"/>
       <c r="AS417" s="11"/>
-    </row>
-    <row r="418" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A418" s="11"/>
+      <c r="AT417" s="11"/>
+    </row>
+    <row r="418" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B418" s="11"/>
       <c r="C418" s="11"/>
       <c r="D418" s="11"/>
@@ -37715,9 +37722,9 @@
       <c r="AQ418" s="11"/>
       <c r="AR418" s="11"/>
       <c r="AS418" s="11"/>
-    </row>
-    <row r="419" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A419" s="11"/>
+      <c r="AT418" s="11"/>
+    </row>
+    <row r="419" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B419" s="11"/>
       <c r="C419" s="11"/>
       <c r="D419" s="11"/>
@@ -37762,9 +37769,9 @@
       <c r="AQ419" s="11"/>
       <c r="AR419" s="11"/>
       <c r="AS419" s="11"/>
-    </row>
-    <row r="420" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A420" s="11"/>
+      <c r="AT419" s="11"/>
+    </row>
+    <row r="420" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B420" s="11"/>
       <c r="C420" s="11"/>
       <c r="D420" s="11"/>
@@ -37809,9 +37816,9 @@
       <c r="AQ420" s="11"/>
       <c r="AR420" s="11"/>
       <c r="AS420" s="11"/>
-    </row>
-    <row r="421" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A421" s="11"/>
+      <c r="AT420" s="11"/>
+    </row>
+    <row r="421" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B421" s="11"/>
       <c r="C421" s="11"/>
       <c r="D421" s="11"/>
@@ -37856,9 +37863,9 @@
       <c r="AQ421" s="11"/>
       <c r="AR421" s="11"/>
       <c r="AS421" s="11"/>
-    </row>
-    <row r="422" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A422" s="11"/>
+      <c r="AT421" s="11"/>
+    </row>
+    <row r="422" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B422" s="11"/>
       <c r="C422" s="11"/>
       <c r="D422" s="11"/>
@@ -37903,9 +37910,9 @@
       <c r="AQ422" s="11"/>
       <c r="AR422" s="11"/>
       <c r="AS422" s="11"/>
-    </row>
-    <row r="423" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A423" s="11"/>
+      <c r="AT422" s="11"/>
+    </row>
+    <row r="423" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B423" s="11"/>
       <c r="C423" s="11"/>
       <c r="D423" s="11"/>
@@ -37950,9 +37957,9 @@
       <c r="AQ423" s="11"/>
       <c r="AR423" s="11"/>
       <c r="AS423" s="11"/>
-    </row>
-    <row r="424" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A424" s="11"/>
+      <c r="AT423" s="11"/>
+    </row>
+    <row r="424" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B424" s="11"/>
       <c r="C424" s="11"/>
       <c r="D424" s="11"/>
@@ -37997,9 +38004,9 @@
       <c r="AQ424" s="11"/>
       <c r="AR424" s="11"/>
       <c r="AS424" s="11"/>
-    </row>
-    <row r="425" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A425" s="11"/>
+      <c r="AT424" s="11"/>
+    </row>
+    <row r="425" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B425" s="11"/>
       <c r="C425" s="11"/>
       <c r="D425" s="11"/>
@@ -38044,9 +38051,9 @@
       <c r="AQ425" s="11"/>
       <c r="AR425" s="11"/>
       <c r="AS425" s="11"/>
-    </row>
-    <row r="426" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A426" s="11"/>
+      <c r="AT425" s="11"/>
+    </row>
+    <row r="426" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B426" s="11"/>
       <c r="C426" s="11"/>
       <c r="D426" s="11"/>
@@ -38091,9 +38098,9 @@
       <c r="AQ426" s="11"/>
       <c r="AR426" s="11"/>
       <c r="AS426" s="11"/>
-    </row>
-    <row r="427" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A427" s="11"/>
+      <c r="AT426" s="11"/>
+    </row>
+    <row r="427" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B427" s="11"/>
       <c r="C427" s="11"/>
       <c r="D427" s="11"/>
@@ -38138,9 +38145,9 @@
       <c r="AQ427" s="11"/>
       <c r="AR427" s="11"/>
       <c r="AS427" s="11"/>
-    </row>
-    <row r="428" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A428" s="11"/>
+      <c r="AT427" s="11"/>
+    </row>
+    <row r="428" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B428" s="11"/>
       <c r="C428" s="11"/>
       <c r="D428" s="11"/>
@@ -38185,9 +38192,9 @@
       <c r="AQ428" s="11"/>
       <c r="AR428" s="11"/>
       <c r="AS428" s="11"/>
-    </row>
-    <row r="429" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A429" s="11"/>
+      <c r="AT428" s="11"/>
+    </row>
+    <row r="429" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B429" s="11"/>
       <c r="C429" s="11"/>
       <c r="D429" s="11"/>
@@ -38232,9 +38239,9 @@
       <c r="AQ429" s="11"/>
       <c r="AR429" s="11"/>
       <c r="AS429" s="11"/>
-    </row>
-    <row r="430" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A430" s="11"/>
+      <c r="AT429" s="11"/>
+    </row>
+    <row r="430" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B430" s="11"/>
       <c r="C430" s="11"/>
       <c r="D430" s="11"/>
@@ -38279,9 +38286,9 @@
       <c r="AQ430" s="11"/>
       <c r="AR430" s="11"/>
       <c r="AS430" s="11"/>
-    </row>
-    <row r="431" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A431" s="11"/>
+      <c r="AT430" s="11"/>
+    </row>
+    <row r="431" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B431" s="11"/>
       <c r="C431" s="11"/>
       <c r="D431" s="11"/>
@@ -38326,9 +38333,9 @@
       <c r="AQ431" s="11"/>
       <c r="AR431" s="11"/>
       <c r="AS431" s="11"/>
-    </row>
-    <row r="432" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A432" s="11"/>
+      <c r="AT431" s="11"/>
+    </row>
+    <row r="432" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B432" s="11"/>
       <c r="C432" s="11"/>
       <c r="D432" s="11"/>
@@ -38373,9 +38380,9 @@
       <c r="AQ432" s="11"/>
       <c r="AR432" s="11"/>
       <c r="AS432" s="11"/>
-    </row>
-    <row r="433" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A433" s="11"/>
+      <c r="AT432" s="11"/>
+    </row>
+    <row r="433" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B433" s="11"/>
       <c r="C433" s="11"/>
       <c r="D433" s="11"/>
@@ -38420,9 +38427,9 @@
       <c r="AQ433" s="11"/>
       <c r="AR433" s="11"/>
       <c r="AS433" s="11"/>
-    </row>
-    <row r="434" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A434" s="11"/>
+      <c r="AT433" s="11"/>
+    </row>
+    <row r="434" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B434" s="11"/>
       <c r="C434" s="11"/>
       <c r="D434" s="11"/>
@@ -38467,9 +38474,9 @@
       <c r="AQ434" s="11"/>
       <c r="AR434" s="11"/>
       <c r="AS434" s="11"/>
-    </row>
-    <row r="435" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A435" s="11"/>
+      <c r="AT434" s="11"/>
+    </row>
+    <row r="435" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B435" s="11"/>
       <c r="C435" s="11"/>
       <c r="D435" s="11"/>
@@ -38514,9 +38521,9 @@
       <c r="AQ435" s="11"/>
       <c r="AR435" s="11"/>
       <c r="AS435" s="11"/>
-    </row>
-    <row r="436" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A436" s="11"/>
+      <c r="AT435" s="11"/>
+    </row>
+    <row r="436" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B436" s="11"/>
       <c r="C436" s="11"/>
       <c r="D436" s="11"/>
@@ -38561,9 +38568,9 @@
       <c r="AQ436" s="11"/>
       <c r="AR436" s="11"/>
       <c r="AS436" s="11"/>
-    </row>
-    <row r="437" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A437" s="11"/>
+      <c r="AT436" s="11"/>
+    </row>
+    <row r="437" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B437" s="11"/>
       <c r="C437" s="11"/>
       <c r="D437" s="11"/>
@@ -38608,9 +38615,9 @@
       <c r="AQ437" s="11"/>
       <c r="AR437" s="11"/>
       <c r="AS437" s="11"/>
-    </row>
-    <row r="438" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A438" s="11"/>
+      <c r="AT437" s="11"/>
+    </row>
+    <row r="438" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B438" s="11"/>
       <c r="C438" s="11"/>
       <c r="D438" s="11"/>
@@ -38655,9 +38662,9 @@
       <c r="AQ438" s="11"/>
       <c r="AR438" s="11"/>
       <c r="AS438" s="11"/>
-    </row>
-    <row r="439" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A439" s="11"/>
+      <c r="AT438" s="11"/>
+    </row>
+    <row r="439" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B439" s="11"/>
       <c r="C439" s="11"/>
       <c r="D439" s="11"/>
@@ -38702,9 +38709,9 @@
       <c r="AQ439" s="11"/>
       <c r="AR439" s="11"/>
       <c r="AS439" s="11"/>
-    </row>
-    <row r="440" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A440" s="11"/>
+      <c r="AT439" s="11"/>
+    </row>
+    <row r="440" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B440" s="11"/>
       <c r="C440" s="11"/>
       <c r="D440" s="11"/>
@@ -38749,9 +38756,9 @@
       <c r="AQ440" s="11"/>
       <c r="AR440" s="11"/>
       <c r="AS440" s="11"/>
-    </row>
-    <row r="441" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A441" s="11"/>
+      <c r="AT440" s="11"/>
+    </row>
+    <row r="441" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B441" s="11"/>
       <c r="C441" s="11"/>
       <c r="D441" s="11"/>
@@ -38796,9 +38803,9 @@
       <c r="AQ441" s="11"/>
       <c r="AR441" s="11"/>
       <c r="AS441" s="11"/>
-    </row>
-    <row r="442" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A442" s="11"/>
+      <c r="AT441" s="11"/>
+    </row>
+    <row r="442" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B442" s="11"/>
       <c r="C442" s="11"/>
       <c r="D442" s="11"/>
@@ -38843,9 +38850,9 @@
       <c r="AQ442" s="11"/>
       <c r="AR442" s="11"/>
       <c r="AS442" s="11"/>
-    </row>
-    <row r="443" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A443" s="11"/>
+      <c r="AT442" s="11"/>
+    </row>
+    <row r="443" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B443" s="11"/>
       <c r="C443" s="11"/>
       <c r="D443" s="11"/>
@@ -38890,9 +38897,9 @@
       <c r="AQ443" s="11"/>
       <c r="AR443" s="11"/>
       <c r="AS443" s="11"/>
-    </row>
-    <row r="444" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A444" s="11"/>
+      <c r="AT443" s="11"/>
+    </row>
+    <row r="444" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B444" s="11"/>
       <c r="C444" s="11"/>
       <c r="D444" s="11"/>
@@ -38937,9 +38944,9 @@
       <c r="AQ444" s="11"/>
       <c r="AR444" s="11"/>
       <c r="AS444" s="11"/>
-    </row>
-    <row r="445" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A445" s="11"/>
+      <c r="AT444" s="11"/>
+    </row>
+    <row r="445" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B445" s="11"/>
       <c r="C445" s="11"/>
       <c r="D445" s="11"/>
@@ -38984,9 +38991,9 @@
       <c r="AQ445" s="11"/>
       <c r="AR445" s="11"/>
       <c r="AS445" s="11"/>
-    </row>
-    <row r="446" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A446" s="11"/>
+      <c r="AT445" s="11"/>
+    </row>
+    <row r="446" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B446" s="11"/>
       <c r="C446" s="11"/>
       <c r="D446" s="11"/>
@@ -39031,9 +39038,9 @@
       <c r="AQ446" s="11"/>
       <c r="AR446" s="11"/>
       <c r="AS446" s="11"/>
-    </row>
-    <row r="447" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A447" s="11"/>
+      <c r="AT446" s="11"/>
+    </row>
+    <row r="447" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B447" s="11"/>
       <c r="C447" s="11"/>
       <c r="D447" s="11"/>
@@ -39078,9 +39085,9 @@
       <c r="AQ447" s="11"/>
       <c r="AR447" s="11"/>
       <c r="AS447" s="11"/>
-    </row>
-    <row r="448" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A448" s="11"/>
+      <c r="AT447" s="11"/>
+    </row>
+    <row r="448" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B448" s="11"/>
       <c r="C448" s="11"/>
       <c r="D448" s="11"/>
@@ -39125,9 +39132,9 @@
       <c r="AQ448" s="11"/>
       <c r="AR448" s="11"/>
       <c r="AS448" s="11"/>
-    </row>
-    <row r="449" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A449" s="11"/>
+      <c r="AT448" s="11"/>
+    </row>
+    <row r="449" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B449" s="11"/>
       <c r="C449" s="11"/>
       <c r="D449" s="11"/>
@@ -39172,9 +39179,9 @@
       <c r="AQ449" s="11"/>
       <c r="AR449" s="11"/>
       <c r="AS449" s="11"/>
-    </row>
-    <row r="450" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A450" s="11"/>
+      <c r="AT449" s="11"/>
+    </row>
+    <row r="450" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B450" s="11"/>
       <c r="C450" s="11"/>
       <c r="D450" s="11"/>
@@ -39219,9 +39226,9 @@
       <c r="AQ450" s="11"/>
       <c r="AR450" s="11"/>
       <c r="AS450" s="11"/>
-    </row>
-    <row r="451" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A451" s="11"/>
+      <c r="AT450" s="11"/>
+    </row>
+    <row r="451" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B451" s="11"/>
       <c r="C451" s="11"/>
       <c r="D451" s="11"/>
@@ -39266,9 +39273,9 @@
       <c r="AQ451" s="11"/>
       <c r="AR451" s="11"/>
       <c r="AS451" s="11"/>
-    </row>
-    <row r="452" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A452" s="11"/>
+      <c r="AT451" s="11"/>
+    </row>
+    <row r="452" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B452" s="11"/>
       <c r="C452" s="11"/>
       <c r="D452" s="11"/>
@@ -39313,9 +39320,9 @@
       <c r="AQ452" s="11"/>
       <c r="AR452" s="11"/>
       <c r="AS452" s="11"/>
-    </row>
-    <row r="453" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A453" s="11"/>
+      <c r="AT452" s="11"/>
+    </row>
+    <row r="453" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B453" s="11"/>
       <c r="C453" s="11"/>
       <c r="D453" s="11"/>
@@ -39360,9 +39367,9 @@
       <c r="AQ453" s="11"/>
       <c r="AR453" s="11"/>
       <c r="AS453" s="11"/>
-    </row>
-    <row r="454" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A454" s="11"/>
+      <c r="AT453" s="11"/>
+    </row>
+    <row r="454" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B454" s="11"/>
       <c r="C454" s="11"/>
       <c r="D454" s="11"/>
@@ -39407,9 +39414,9 @@
       <c r="AQ454" s="11"/>
       <c r="AR454" s="11"/>
       <c r="AS454" s="11"/>
-    </row>
-    <row r="455" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A455" s="11"/>
+      <c r="AT454" s="11"/>
+    </row>
+    <row r="455" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B455" s="11"/>
       <c r="C455" s="11"/>
       <c r="D455" s="11"/>
@@ -39454,9 +39461,9 @@
       <c r="AQ455" s="11"/>
       <c r="AR455" s="11"/>
       <c r="AS455" s="11"/>
-    </row>
-    <row r="456" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A456" s="11"/>
+      <c r="AT455" s="11"/>
+    </row>
+    <row r="456" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B456" s="11"/>
       <c r="C456" s="11"/>
       <c r="D456" s="11"/>
@@ -39501,9 +39508,9 @@
       <c r="AQ456" s="11"/>
       <c r="AR456" s="11"/>
       <c r="AS456" s="11"/>
-    </row>
-    <row r="457" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A457" s="11"/>
+      <c r="AT456" s="11"/>
+    </row>
+    <row r="457" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B457" s="11"/>
       <c r="C457" s="11"/>
       <c r="D457" s="11"/>
@@ -39548,9 +39555,9 @@
       <c r="AQ457" s="11"/>
       <c r="AR457" s="11"/>
       <c r="AS457" s="11"/>
-    </row>
-    <row r="458" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A458" s="11"/>
+      <c r="AT457" s="11"/>
+    </row>
+    <row r="458" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B458" s="11"/>
       <c r="C458" s="11"/>
       <c r="D458" s="11"/>
@@ -39595,9 +39602,9 @@
       <c r="AQ458" s="11"/>
       <c r="AR458" s="11"/>
       <c r="AS458" s="11"/>
-    </row>
-    <row r="459" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A459" s="11"/>
+      <c r="AT458" s="11"/>
+    </row>
+    <row r="459" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B459" s="11"/>
       <c r="C459" s="11"/>
       <c r="D459" s="11"/>
@@ -39642,9 +39649,9 @@
       <c r="AQ459" s="11"/>
       <c r="AR459" s="11"/>
       <c r="AS459" s="11"/>
-    </row>
-    <row r="460" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A460" s="11"/>
+      <c r="AT459" s="11"/>
+    </row>
+    <row r="460" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B460" s="11"/>
       <c r="C460" s="11"/>
       <c r="D460" s="11"/>
@@ -39689,9 +39696,9 @@
       <c r="AQ460" s="11"/>
       <c r="AR460" s="11"/>
       <c r="AS460" s="11"/>
-    </row>
-    <row r="461" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A461" s="11"/>
+      <c r="AT460" s="11"/>
+    </row>
+    <row r="461" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B461" s="11"/>
       <c r="C461" s="11"/>
       <c r="D461" s="11"/>
@@ -39736,9 +39743,9 @@
       <c r="AQ461" s="11"/>
       <c r="AR461" s="11"/>
       <c r="AS461" s="11"/>
-    </row>
-    <row r="462" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A462" s="11"/>
+      <c r="AT461" s="11"/>
+    </row>
+    <row r="462" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B462" s="11"/>
       <c r="C462" s="11"/>
       <c r="D462" s="11"/>
@@ -39783,9 +39790,9 @@
       <c r="AQ462" s="11"/>
       <c r="AR462" s="11"/>
       <c r="AS462" s="11"/>
-    </row>
-    <row r="463" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A463" s="11"/>
+      <c r="AT462" s="11"/>
+    </row>
+    <row r="463" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B463" s="11"/>
       <c r="C463" s="11"/>
       <c r="D463" s="11"/>
@@ -39830,9 +39837,9 @@
       <c r="AQ463" s="11"/>
       <c r="AR463" s="11"/>
       <c r="AS463" s="11"/>
-    </row>
-    <row r="464" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A464" s="11"/>
+      <c r="AT463" s="11"/>
+    </row>
+    <row r="464" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B464" s="11"/>
       <c r="C464" s="11"/>
       <c r="D464" s="11"/>
@@ -39877,9 +39884,9 @@
       <c r="AQ464" s="11"/>
       <c r="AR464" s="11"/>
       <c r="AS464" s="11"/>
-    </row>
-    <row r="465" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A465" s="11"/>
+      <c r="AT464" s="11"/>
+    </row>
+    <row r="465" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B465" s="11"/>
       <c r="C465" s="11"/>
       <c r="D465" s="11"/>
@@ -39924,9 +39931,9 @@
       <c r="AQ465" s="11"/>
       <c r="AR465" s="11"/>
       <c r="AS465" s="11"/>
-    </row>
-    <row r="466" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A466" s="11"/>
+      <c r="AT465" s="11"/>
+    </row>
+    <row r="466" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B466" s="11"/>
       <c r="C466" s="11"/>
       <c r="D466" s="11"/>
@@ -39971,9 +39978,9 @@
       <c r="AQ466" s="11"/>
       <c r="AR466" s="11"/>
       <c r="AS466" s="11"/>
-    </row>
-    <row r="467" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A467" s="11"/>
+      <c r="AT466" s="11"/>
+    </row>
+    <row r="467" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B467" s="11"/>
       <c r="C467" s="11"/>
       <c r="D467" s="11"/>
@@ -40018,9 +40025,9 @@
       <c r="AQ467" s="11"/>
       <c r="AR467" s="11"/>
       <c r="AS467" s="11"/>
-    </row>
-    <row r="468" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A468" s="11"/>
+      <c r="AT467" s="11"/>
+    </row>
+    <row r="468" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B468" s="11"/>
       <c r="C468" s="11"/>
       <c r="D468" s="11"/>
@@ -40065,9 +40072,9 @@
       <c r="AQ468" s="11"/>
       <c r="AR468" s="11"/>
       <c r="AS468" s="11"/>
-    </row>
-    <row r="469" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A469" s="11"/>
+      <c r="AT468" s="11"/>
+    </row>
+    <row r="469" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B469" s="11"/>
       <c r="C469" s="11"/>
       <c r="D469" s="11"/>
@@ -40112,9 +40119,9 @@
       <c r="AQ469" s="11"/>
       <c r="AR469" s="11"/>
       <c r="AS469" s="11"/>
-    </row>
-    <row r="470" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A470" s="11"/>
+      <c r="AT469" s="11"/>
+    </row>
+    <row r="470" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B470" s="11"/>
       <c r="C470" s="11"/>
       <c r="D470" s="11"/>
@@ -40159,9 +40166,9 @@
       <c r="AQ470" s="11"/>
       <c r="AR470" s="11"/>
       <c r="AS470" s="11"/>
-    </row>
-    <row r="471" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A471" s="11"/>
+      <c r="AT470" s="11"/>
+    </row>
+    <row r="471" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B471" s="11"/>
       <c r="C471" s="11"/>
       <c r="D471" s="11"/>
@@ -40206,9 +40213,9 @@
       <c r="AQ471" s="11"/>
       <c r="AR471" s="11"/>
       <c r="AS471" s="11"/>
-    </row>
-    <row r="472" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A472" s="11"/>
+      <c r="AT471" s="11"/>
+    </row>
+    <row r="472" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B472" s="11"/>
       <c r="C472" s="11"/>
       <c r="D472" s="11"/>
@@ -40253,9 +40260,9 @@
       <c r="AQ472" s="11"/>
       <c r="AR472" s="11"/>
       <c r="AS472" s="11"/>
-    </row>
-    <row r="473" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A473" s="11"/>
+      <c r="AT472" s="11"/>
+    </row>
+    <row r="473" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B473" s="11"/>
       <c r="C473" s="11"/>
       <c r="D473" s="11"/>
@@ -40300,9 +40307,9 @@
       <c r="AQ473" s="11"/>
       <c r="AR473" s="11"/>
       <c r="AS473" s="11"/>
-    </row>
-    <row r="474" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A474" s="11"/>
+      <c r="AT473" s="11"/>
+    </row>
+    <row r="474" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B474" s="11"/>
       <c r="C474" s="11"/>
       <c r="D474" s="11"/>
@@ -40347,9 +40354,9 @@
       <c r="AQ474" s="11"/>
       <c r="AR474" s="11"/>
       <c r="AS474" s="11"/>
-    </row>
-    <row r="475" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A475" s="11"/>
+      <c r="AT474" s="11"/>
+    </row>
+    <row r="475" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B475" s="11"/>
       <c r="C475" s="11"/>
       <c r="D475" s="11"/>
@@ -40394,9 +40401,9 @@
       <c r="AQ475" s="11"/>
       <c r="AR475" s="11"/>
       <c r="AS475" s="11"/>
-    </row>
-    <row r="476" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A476" s="11"/>
+      <c r="AT475" s="11"/>
+    </row>
+    <row r="476" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B476" s="11"/>
       <c r="C476" s="11"/>
       <c r="D476" s="11"/>
@@ -40441,9 +40448,9 @@
       <c r="AQ476" s="11"/>
       <c r="AR476" s="11"/>
       <c r="AS476" s="11"/>
-    </row>
-    <row r="477" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A477" s="11"/>
+      <c r="AT476" s="11"/>
+    </row>
+    <row r="477" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B477" s="11"/>
       <c r="C477" s="11"/>
       <c r="D477" s="11"/>
@@ -40488,9 +40495,9 @@
       <c r="AQ477" s="11"/>
       <c r="AR477" s="11"/>
       <c r="AS477" s="11"/>
-    </row>
-    <row r="478" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A478" s="11"/>
+      <c r="AT477" s="11"/>
+    </row>
+    <row r="478" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B478" s="11"/>
       <c r="C478" s="11"/>
       <c r="D478" s="11"/>
@@ -40535,9 +40542,9 @@
       <c r="AQ478" s="11"/>
       <c r="AR478" s="11"/>
       <c r="AS478" s="11"/>
-    </row>
-    <row r="479" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A479" s="11"/>
+      <c r="AT478" s="11"/>
+    </row>
+    <row r="479" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B479" s="11"/>
       <c r="C479" s="11"/>
       <c r="D479" s="11"/>
@@ -40582,9 +40589,9 @@
       <c r="AQ479" s="11"/>
       <c r="AR479" s="11"/>
       <c r="AS479" s="11"/>
-    </row>
-    <row r="480" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A480" s="11"/>
+      <c r="AT479" s="11"/>
+    </row>
+    <row r="480" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B480" s="11"/>
       <c r="C480" s="11"/>
       <c r="D480" s="11"/>
@@ -40629,9 +40636,9 @@
       <c r="AQ480" s="11"/>
       <c r="AR480" s="11"/>
       <c r="AS480" s="11"/>
-    </row>
-    <row r="481" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A481" s="11"/>
+      <c r="AT480" s="11"/>
+    </row>
+    <row r="481" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B481" s="11"/>
       <c r="C481" s="11"/>
       <c r="D481" s="11"/>
@@ -40676,9 +40683,9 @@
       <c r="AQ481" s="11"/>
       <c r="AR481" s="11"/>
       <c r="AS481" s="11"/>
-    </row>
-    <row r="482" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A482" s="11"/>
+      <c r="AT481" s="11"/>
+    </row>
+    <row r="482" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B482" s="11"/>
       <c r="C482" s="11"/>
       <c r="D482" s="11"/>
@@ -40723,9 +40730,9 @@
       <c r="AQ482" s="11"/>
       <c r="AR482" s="11"/>
       <c r="AS482" s="11"/>
-    </row>
-    <row r="483" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A483" s="11"/>
+      <c r="AT482" s="11"/>
+    </row>
+    <row r="483" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B483" s="11"/>
       <c r="C483" s="11"/>
       <c r="D483" s="11"/>
@@ -40770,9 +40777,9 @@
       <c r="AQ483" s="11"/>
       <c r="AR483" s="11"/>
       <c r="AS483" s="11"/>
-    </row>
-    <row r="484" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A484" s="11"/>
+      <c r="AT483" s="11"/>
+    </row>
+    <row r="484" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B484" s="11"/>
       <c r="C484" s="11"/>
       <c r="D484" s="11"/>
@@ -40817,9 +40824,9 @@
       <c r="AQ484" s="11"/>
       <c r="AR484" s="11"/>
       <c r="AS484" s="11"/>
-    </row>
-    <row r="485" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A485" s="11"/>
+      <c r="AT484" s="11"/>
+    </row>
+    <row r="485" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B485" s="11"/>
       <c r="C485" s="11"/>
       <c r="D485" s="11"/>
@@ -40864,9 +40871,9 @@
       <c r="AQ485" s="11"/>
       <c r="AR485" s="11"/>
       <c r="AS485" s="11"/>
-    </row>
-    <row r="486" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A486" s="11"/>
+      <c r="AT485" s="11"/>
+    </row>
+    <row r="486" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B486" s="11"/>
       <c r="C486" s="11"/>
       <c r="D486" s="11"/>
@@ -40911,9 +40918,9 @@
       <c r="AQ486" s="11"/>
       <c r="AR486" s="11"/>
       <c r="AS486" s="11"/>
-    </row>
-    <row r="487" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A487" s="11"/>
+      <c r="AT486" s="11"/>
+    </row>
+    <row r="487" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B487" s="11"/>
       <c r="C487" s="11"/>
       <c r="D487" s="11"/>
@@ -40958,9 +40965,9 @@
       <c r="AQ487" s="11"/>
       <c r="AR487" s="11"/>
       <c r="AS487" s="11"/>
-    </row>
-    <row r="488" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A488" s="11"/>
+      <c r="AT487" s="11"/>
+    </row>
+    <row r="488" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B488" s="11"/>
       <c r="C488" s="11"/>
       <c r="D488" s="11"/>
@@ -41005,9 +41012,9 @@
       <c r="AQ488" s="11"/>
       <c r="AR488" s="11"/>
       <c r="AS488" s="11"/>
-    </row>
-    <row r="489" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A489" s="11"/>
+      <c r="AT488" s="11"/>
+    </row>
+    <row r="489" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B489" s="11"/>
       <c r="C489" s="11"/>
       <c r="D489" s="11"/>
@@ -41052,9 +41059,9 @@
       <c r="AQ489" s="11"/>
       <c r="AR489" s="11"/>
       <c r="AS489" s="11"/>
-    </row>
-    <row r="490" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A490" s="11"/>
+      <c r="AT489" s="11"/>
+    </row>
+    <row r="490" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B490" s="11"/>
       <c r="C490" s="11"/>
       <c r="D490" s="11"/>
@@ -41099,9 +41106,9 @@
       <c r="AQ490" s="11"/>
       <c r="AR490" s="11"/>
       <c r="AS490" s="11"/>
-    </row>
-    <row r="491" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A491" s="11"/>
+      <c r="AT490" s="11"/>
+    </row>
+    <row r="491" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B491" s="11"/>
       <c r="C491" s="11"/>
       <c r="D491" s="11"/>
@@ -41146,9 +41153,9 @@
       <c r="AQ491" s="11"/>
       <c r="AR491" s="11"/>
       <c r="AS491" s="11"/>
-    </row>
-    <row r="492" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A492" s="11"/>
+      <c r="AT491" s="11"/>
+    </row>
+    <row r="492" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B492" s="11"/>
       <c r="C492" s="11"/>
       <c r="D492" s="11"/>
@@ -41193,9 +41200,9 @@
       <c r="AQ492" s="11"/>
       <c r="AR492" s="11"/>
       <c r="AS492" s="11"/>
-    </row>
-    <row r="493" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A493" s="11"/>
+      <c r="AT492" s="11"/>
+    </row>
+    <row r="493" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B493" s="11"/>
       <c r="C493" s="11"/>
       <c r="D493" s="11"/>
@@ -41240,9 +41247,9 @@
       <c r="AQ493" s="11"/>
       <c r="AR493" s="11"/>
       <c r="AS493" s="11"/>
-    </row>
-    <row r="494" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A494" s="11"/>
+      <c r="AT493" s="11"/>
+    </row>
+    <row r="494" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B494" s="11"/>
       <c r="C494" s="11"/>
       <c r="D494" s="11"/>
@@ -41287,9 +41294,9 @@
       <c r="AQ494" s="11"/>
       <c r="AR494" s="11"/>
       <c r="AS494" s="11"/>
-    </row>
-    <row r="495" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A495" s="11"/>
+      <c r="AT494" s="11"/>
+    </row>
+    <row r="495" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B495" s="11"/>
       <c r="C495" s="11"/>
       <c r="D495" s="11"/>
@@ -41334,9 +41341,9 @@
       <c r="AQ495" s="11"/>
       <c r="AR495" s="11"/>
       <c r="AS495" s="11"/>
-    </row>
-    <row r="496" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A496" s="11"/>
+      <c r="AT495" s="11"/>
+    </row>
+    <row r="496" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B496" s="11"/>
       <c r="C496" s="11"/>
       <c r="D496" s="11"/>
@@ -41381,9 +41388,9 @@
       <c r="AQ496" s="11"/>
       <c r="AR496" s="11"/>
       <c r="AS496" s="11"/>
-    </row>
-    <row r="497" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A497" s="11"/>
+      <c r="AT496" s="11"/>
+    </row>
+    <row r="497" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B497" s="11"/>
       <c r="C497" s="11"/>
       <c r="D497" s="11"/>
@@ -41428,9 +41435,9 @@
       <c r="AQ497" s="11"/>
       <c r="AR497" s="11"/>
       <c r="AS497" s="11"/>
-    </row>
-    <row r="498" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A498" s="11"/>
+      <c r="AT497" s="11"/>
+    </row>
+    <row r="498" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B498" s="11"/>
       <c r="C498" s="11"/>
       <c r="D498" s="11"/>
@@ -41475,9 +41482,9 @@
       <c r="AQ498" s="11"/>
       <c r="AR498" s="11"/>
       <c r="AS498" s="11"/>
-    </row>
-    <row r="499" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A499" s="11"/>
+      <c r="AT498" s="11"/>
+    </row>
+    <row r="499" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B499" s="11"/>
       <c r="C499" s="11"/>
       <c r="D499" s="11"/>
@@ -41522,9 +41529,9 @@
       <c r="AQ499" s="11"/>
       <c r="AR499" s="11"/>
       <c r="AS499" s="11"/>
-    </row>
-    <row r="500" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A500" s="11"/>
+      <c r="AT499" s="11"/>
+    </row>
+    <row r="500" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B500" s="11"/>
       <c r="C500" s="11"/>
       <c r="D500" s="11"/>
@@ -41569,9 +41576,9 @@
       <c r="AQ500" s="11"/>
       <c r="AR500" s="11"/>
       <c r="AS500" s="11"/>
-    </row>
-    <row r="501" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A501" s="11"/>
+      <c r="AT500" s="11"/>
+    </row>
+    <row r="501" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B501" s="11"/>
       <c r="C501" s="11"/>
       <c r="D501" s="11"/>
@@ -41616,9 +41623,9 @@
       <c r="AQ501" s="11"/>
       <c r="AR501" s="11"/>
       <c r="AS501" s="11"/>
-    </row>
-    <row r="502" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A502" s="11"/>
+      <c r="AT501" s="11"/>
+    </row>
+    <row r="502" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B502" s="11"/>
       <c r="C502" s="11"/>
       <c r="D502" s="11"/>
@@ -41663,9 +41670,9 @@
       <c r="AQ502" s="11"/>
       <c r="AR502" s="11"/>
       <c r="AS502" s="11"/>
-    </row>
-    <row r="503" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A503" s="11"/>
+      <c r="AT502" s="11"/>
+    </row>
+    <row r="503" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B503" s="11"/>
       <c r="C503" s="11"/>
       <c r="D503" s="11"/>
@@ -41710,9 +41717,9 @@
       <c r="AQ503" s="11"/>
       <c r="AR503" s="11"/>
       <c r="AS503" s="11"/>
-    </row>
-    <row r="504" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A504" s="11"/>
+      <c r="AT503" s="11"/>
+    </row>
+    <row r="504" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B504" s="11"/>
       <c r="C504" s="11"/>
       <c r="D504" s="11"/>
@@ -41757,9 +41764,9 @@
       <c r="AQ504" s="11"/>
       <c r="AR504" s="11"/>
       <c r="AS504" s="11"/>
-    </row>
-    <row r="505" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A505" s="11"/>
+      <c r="AT504" s="11"/>
+    </row>
+    <row r="505" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B505" s="11"/>
       <c r="C505" s="11"/>
       <c r="D505" s="11"/>
@@ -41804,9 +41811,9 @@
       <c r="AQ505" s="11"/>
       <c r="AR505" s="11"/>
       <c r="AS505" s="11"/>
-    </row>
-    <row r="506" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A506" s="11"/>
+      <c r="AT505" s="11"/>
+    </row>
+    <row r="506" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B506" s="11"/>
       <c r="C506" s="11"/>
       <c r="D506" s="11"/>
@@ -41851,9 +41858,9 @@
       <c r="AQ506" s="11"/>
       <c r="AR506" s="11"/>
       <c r="AS506" s="11"/>
-    </row>
-    <row r="507" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A507" s="11"/>
+      <c r="AT506" s="11"/>
+    </row>
+    <row r="507" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B507" s="11"/>
       <c r="C507" s="11"/>
       <c r="D507" s="11"/>
@@ -41898,9 +41905,9 @@
       <c r="AQ507" s="11"/>
       <c r="AR507" s="11"/>
       <c r="AS507" s="11"/>
-    </row>
-    <row r="508" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A508" s="11"/>
+      <c r="AT507" s="11"/>
+    </row>
+    <row r="508" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B508" s="11"/>
       <c r="C508" s="11"/>
       <c r="D508" s="11"/>
@@ -41945,9 +41952,9 @@
       <c r="AQ508" s="11"/>
       <c r="AR508" s="11"/>
       <c r="AS508" s="11"/>
-    </row>
-    <row r="509" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A509" s="11"/>
+      <c r="AT508" s="11"/>
+    </row>
+    <row r="509" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B509" s="11"/>
       <c r="C509" s="11"/>
       <c r="D509" s="11"/>
@@ -41992,9 +41999,9 @@
       <c r="AQ509" s="11"/>
       <c r="AR509" s="11"/>
       <c r="AS509" s="11"/>
-    </row>
-    <row r="510" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A510" s="11"/>
+      <c r="AT509" s="11"/>
+    </row>
+    <row r="510" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B510" s="11"/>
       <c r="C510" s="11"/>
       <c r="D510" s="11"/>
@@ -42039,9 +42046,9 @@
       <c r="AQ510" s="11"/>
       <c r="AR510" s="11"/>
       <c r="AS510" s="11"/>
-    </row>
-    <row r="511" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A511" s="11"/>
+      <c r="AT510" s="11"/>
+    </row>
+    <row r="511" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B511" s="11"/>
       <c r="C511" s="11"/>
       <c r="D511" s="11"/>
@@ -42086,9 +42093,9 @@
       <c r="AQ511" s="11"/>
       <c r="AR511" s="11"/>
       <c r="AS511" s="11"/>
-    </row>
-    <row r="512" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A512" s="11"/>
+      <c r="AT511" s="11"/>
+    </row>
+    <row r="512" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B512" s="11"/>
       <c r="C512" s="11"/>
       <c r="D512" s="11"/>
@@ -42133,9 +42140,9 @@
       <c r="AQ512" s="11"/>
       <c r="AR512" s="11"/>
       <c r="AS512" s="11"/>
-    </row>
-    <row r="513" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A513" s="11"/>
+      <c r="AT512" s="11"/>
+    </row>
+    <row r="513" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B513" s="11"/>
       <c r="C513" s="11"/>
       <c r="D513" s="11"/>
@@ -42180,9 +42187,9 @@
       <c r="AQ513" s="11"/>
       <c r="AR513" s="11"/>
       <c r="AS513" s="11"/>
-    </row>
-    <row r="514" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A514" s="11"/>
+      <c r="AT513" s="11"/>
+    </row>
+    <row r="514" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B514" s="11"/>
       <c r="C514" s="11"/>
       <c r="D514" s="11"/>
@@ -42227,9 +42234,9 @@
       <c r="AQ514" s="11"/>
       <c r="AR514" s="11"/>
       <c r="AS514" s="11"/>
-    </row>
-    <row r="515" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A515" s="11"/>
+      <c r="AT514" s="11"/>
+    </row>
+    <row r="515" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B515" s="11"/>
       <c r="C515" s="11"/>
       <c r="D515" s="11"/>
@@ -42274,9 +42281,9 @@
       <c r="AQ515" s="11"/>
       <c r="AR515" s="11"/>
       <c r="AS515" s="11"/>
-    </row>
-    <row r="516" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A516" s="11"/>
+      <c r="AT515" s="11"/>
+    </row>
+    <row r="516" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B516" s="11"/>
       <c r="C516" s="11"/>
       <c r="D516" s="11"/>
@@ -42321,9 +42328,9 @@
       <c r="AQ516" s="11"/>
       <c r="AR516" s="11"/>
       <c r="AS516" s="11"/>
-    </row>
-    <row r="517" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A517" s="11"/>
+      <c r="AT516" s="11"/>
+    </row>
+    <row r="517" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B517" s="11"/>
       <c r="C517" s="11"/>
       <c r="D517" s="11"/>
@@ -42368,9 +42375,9 @@
       <c r="AQ517" s="11"/>
       <c r="AR517" s="11"/>
       <c r="AS517" s="11"/>
-    </row>
-    <row r="518" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A518" s="11"/>
+      <c r="AT517" s="11"/>
+    </row>
+    <row r="518" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B518" s="11"/>
       <c r="C518" s="11"/>
       <c r="D518" s="11"/>
@@ -42415,9 +42422,9 @@
       <c r="AQ518" s="11"/>
       <c r="AR518" s="11"/>
       <c r="AS518" s="11"/>
-    </row>
-    <row r="519" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A519" s="11"/>
+      <c r="AT518" s="11"/>
+    </row>
+    <row r="519" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B519" s="11"/>
       <c r="C519" s="11"/>
       <c r="D519" s="11"/>
@@ -42462,9 +42469,9 @@
       <c r="AQ519" s="11"/>
       <c r="AR519" s="11"/>
       <c r="AS519" s="11"/>
-    </row>
-    <row r="520" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A520" s="11"/>
+      <c r="AT519" s="11"/>
+    </row>
+    <row r="520" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B520" s="11"/>
       <c r="C520" s="11"/>
       <c r="D520" s="11"/>
@@ -42509,9 +42516,9 @@
       <c r="AQ520" s="11"/>
       <c r="AR520" s="11"/>
       <c r="AS520" s="11"/>
-    </row>
-    <row r="521" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A521" s="11"/>
+      <c r="AT520" s="11"/>
+    </row>
+    <row r="521" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B521" s="11"/>
       <c r="C521" s="11"/>
       <c r="D521" s="11"/>
@@ -42556,9 +42563,9 @@
       <c r="AQ521" s="11"/>
       <c r="AR521" s="11"/>
       <c r="AS521" s="11"/>
-    </row>
-    <row r="522" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A522" s="11"/>
+      <c r="AT521" s="11"/>
+    </row>
+    <row r="522" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B522" s="11"/>
       <c r="C522" s="11"/>
       <c r="D522" s="11"/>
@@ -42603,9 +42610,9 @@
       <c r="AQ522" s="11"/>
       <c r="AR522" s="11"/>
       <c r="AS522" s="11"/>
-    </row>
-    <row r="523" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A523" s="11"/>
+      <c r="AT522" s="11"/>
+    </row>
+    <row r="523" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B523" s="11"/>
       <c r="C523" s="11"/>
       <c r="D523" s="11"/>
@@ -42650,9 +42657,9 @@
       <c r="AQ523" s="11"/>
       <c r="AR523" s="11"/>
       <c r="AS523" s="11"/>
-    </row>
-    <row r="524" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A524" s="11"/>
+      <c r="AT523" s="11"/>
+    </row>
+    <row r="524" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B524" s="11"/>
       <c r="C524" s="11"/>
       <c r="D524" s="11"/>
@@ -42697,9 +42704,9 @@
       <c r="AQ524" s="11"/>
       <c r="AR524" s="11"/>
       <c r="AS524" s="11"/>
-    </row>
-    <row r="525" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A525" s="11"/>
+      <c r="AT524" s="11"/>
+    </row>
+    <row r="525" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B525" s="11"/>
       <c r="C525" s="11"/>
       <c r="D525" s="11"/>
@@ -42744,9 +42751,9 @@
       <c r="AQ525" s="11"/>
       <c r="AR525" s="11"/>
       <c r="AS525" s="11"/>
-    </row>
-    <row r="526" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A526" s="11"/>
+      <c r="AT525" s="11"/>
+    </row>
+    <row r="526" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B526" s="11"/>
       <c r="C526" s="11"/>
       <c r="D526" s="11"/>
@@ -42791,9 +42798,9 @@
       <c r="AQ526" s="11"/>
       <c r="AR526" s="11"/>
       <c r="AS526" s="11"/>
-    </row>
-    <row r="527" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A527" s="11"/>
+      <c r="AT526" s="11"/>
+    </row>
+    <row r="527" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B527" s="11"/>
       <c r="C527" s="11"/>
       <c r="D527" s="11"/>
@@ -42838,9 +42845,9 @@
       <c r="AQ527" s="11"/>
       <c r="AR527" s="11"/>
       <c r="AS527" s="11"/>
-    </row>
-    <row r="528" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A528" s="11"/>
+      <c r="AT527" s="11"/>
+    </row>
+    <row r="528" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B528" s="11"/>
       <c r="C528" s="11"/>
       <c r="D528" s="11"/>
@@ -42885,6 +42892,7 @@
       <c r="AQ528" s="11"/>
       <c r="AR528" s="11"/>
       <c r="AS528" s="11"/>
+      <c r="AT528" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
